--- a/analysis/results/Q1_norway/univariate_analysis/uni_analysis_wb_colon.xlsx
+++ b/analysis/results/Q1_norway/univariate_analysis/uni_analysis_wb_colon.xlsx
@@ -1657,10 +1657,10 @@
         <v>1.20934446210668</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0958083832335329</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.323353293413174</v>
+        <v>0.259615384615385</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -1749,10 +1749,10 @@
         <v>-2.6080234768515</v>
       </c>
       <c r="X3" t="n">
-        <v>0.143712574850299</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.155688622754491</v>
+        <v>0.125</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -1841,10 +1841,10 @@
         <v>-1.07144167595601</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0538922155688623</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.125748502994012</v>
+        <v>0.100961538461538</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -1933,10 +1933,10 @@
         <v>-0.196370597997658</v>
       </c>
       <c r="X5" t="n">
-        <v>0.329341317365269</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.538922155688623</v>
+        <v>0.432692307692308</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -2025,10 +2025,10 @@
         <v>-0.198678253809451</v>
       </c>
       <c r="X6" t="n">
-        <v>0.275449101796407</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.646706586826347</v>
+        <v>0.519230769230769</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -2117,10 +2117,10 @@
         <v>-1.06245342828639</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0538922155688623</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.131736526946108</v>
+        <v>0.105769230769231</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -2209,10 +2209,10 @@
         <v>-0.300504997014546</v>
       </c>
       <c r="X8" t="n">
-        <v>0.383233532934132</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.04790419161677</v>
+        <v>0.841346153846154</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -2301,10 +2301,10 @@
         <v>-2.00576330092365</v>
       </c>
       <c r="X9" t="n">
-        <v>0.11377245508982</v>
+        <v>0.287878787878788</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -2393,10 +2393,10 @@
         <v>-0.591667178249359</v>
       </c>
       <c r="X10" t="n">
-        <v>0.18562874251497</v>
+        <v>0.46969696969697</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.275449101796407</v>
+        <v>0.221153846153846</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -2485,10 +2485,10 @@
         <v>-0.141397712212019</v>
       </c>
       <c r="X11" t="n">
-        <v>0.29940119760479</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.55688622754491</v>
+        <v>0.447115384615385</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -2577,10 +2577,10 @@
         <v>0.294490998723089</v>
       </c>
       <c r="X12" t="n">
-        <v>0.155688622754491</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.317365269461078</v>
+        <v>0.254807692307692</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -2669,10 +2669,10 @@
         <v>0.891372231403233</v>
       </c>
       <c r="X13" t="n">
-        <v>0.305389221556886</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.802395209580838</v>
+        <v>0.644230769230769</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -2761,10 +2761,10 @@
         <v>2.79591616232314</v>
       </c>
       <c r="X14" t="n">
-        <v>0.197604790419162</v>
+        <v>0.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.826347305389222</v>
+        <v>0.663461538461538</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -2853,10 +2853,10 @@
         <v>-0.751195862487532</v>
       </c>
       <c r="X15" t="n">
-        <v>0.383233532934132</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.11976047904192</v>
+        <v>0.899038461538462</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -2945,10 +2945,10 @@
         <v>2.04661189289102</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.0288461538461538</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -3037,10 +3037,10 @@
         <v>4.53106052834908</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0179640718562874</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.155688622754491</v>
+        <v>0.125</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -3129,10 +3129,10 @@
         <v>0.506324485209395</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0898203592814371</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.347305389221557</v>
+        <v>0.278846153846154</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -3221,10 +3221,10 @@
         <v>-2.68588199619711</v>
       </c>
       <c r="X19" t="n">
-        <v>0.239520958083832</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.347305389221557</v>
+        <v>0.278846153846154</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -3313,10 +3313,10 @@
         <v>-0.722446529876607</v>
       </c>
       <c r="X20" t="n">
-        <v>0.347305389221557</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.910179640718563</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -3405,10 +3405,10 @@
         <v>0.621296592185185</v>
       </c>
       <c r="X21" t="n">
-        <v>0.227544910179641</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.520958083832335</v>
+        <v>0.418269230769231</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -3497,10 +3497,10 @@
         <v>-0.603483394655368</v>
       </c>
       <c r="X22" t="n">
-        <v>0.389221556886228</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.916167664670659</v>
+        <v>0.735576923076923</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -3589,10 +3589,10 @@
         <v>4.12592176277528</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0119760479041916</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.149700598802395</v>
+        <v>0.120192307692308</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -3681,10 +3681,10 @@
         <v>-0.64192457745306</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0419161676646707</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0898203592814371</v>
+        <v>0.0721153846153846</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -3773,10 +3773,10 @@
         <v>-4.33458677864881</v>
       </c>
       <c r="X25" t="n">
-        <v>0.107784431137725</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -3865,10 +3865,10 @@
         <v>-1.92602947883303</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0479041916167665</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0419161676646707</v>
+        <v>0.0336538461538462</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -3957,10 +3957,10 @@
         <v>-0.0520731150881525</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0538922155688623</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0479041916167665</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -4049,10 +4049,10 @@
         <v>-0.344944658361599</v>
       </c>
       <c r="X28" t="n">
-        <v>0.383233532934132</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.1377245508982</v>
+        <v>0.913461538461538</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -4141,10 +4141,10 @@
         <v>-0.955018970588232</v>
       </c>
       <c r="X29" t="n">
-        <v>0.191616766467066</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.305389221556886</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -4233,10 +4233,10 @@
         <v>-3.94635188147509</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0479041916167665</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0179640718562874</v>
+        <v>0.0144230769230769</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -4325,10 +4325,10 @@
         <v>0.432051843422296</v>
       </c>
       <c r="X31" t="n">
-        <v>0.395209580838323</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.1377245508982</v>
+        <v>0.913461538461538</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -4417,10 +4417,10 @@
         <v>-1.83925083697834</v>
       </c>
       <c r="X32" t="n">
-        <v>0.293413173652695</v>
+        <v>0.742424242424242</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.479041916167665</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -4509,10 +4509,10 @@
         <v>0.853504984204402</v>
       </c>
       <c r="X33" t="n">
-        <v>0.29940119760479</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.02994011976048</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -4601,10 +4601,10 @@
         <v>-0.417278182570249</v>
       </c>
       <c r="X34" t="n">
-        <v>0.329341317365269</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.550898203592814</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -4693,10 +4693,10 @@
         <v>0.735163710611407</v>
       </c>
       <c r="X35" t="n">
-        <v>0.395209580838323</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.19760479041916</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="Z35" t="s">
         <v>97</v>
@@ -4785,10 +4785,10 @@
         <v>-2.17058719085728</v>
       </c>
       <c r="X36" t="n">
-        <v>0.00598802395209581</v>
+        <v>0.0151515151515152</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.293413173652695</v>
+        <v>0.235576923076923</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -4877,10 +4877,10 @@
         <v>-0.467818044642883</v>
       </c>
       <c r="X37" t="n">
-        <v>0.377245508982036</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.04790419161677</v>
+        <v>0.841346153846154</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -4969,10 +4969,10 @@
         <v>-1.1756852304722</v>
       </c>
       <c r="X38" t="n">
-        <v>0.281437125748503</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.269461077844311</v>
+        <v>0.216346153846154</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -5061,10 +5061,10 @@
         <v>0.678274875825941</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.179640718562874</v>
+        <v>0.144230769230769</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -5153,10 +5153,10 @@
         <v>-0.149598089033727</v>
       </c>
       <c r="X40" t="n">
-        <v>0.317365269461078</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.48502994011976</v>
+        <v>0.389423076923077</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -5245,10 +5245,10 @@
         <v>-2.1531501908744</v>
       </c>
       <c r="X41" t="n">
-        <v>0.167664670658683</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.161676646706587</v>
+        <v>0.129807692307692</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -5337,10 +5337,10 @@
         <v>-6.03214738466178</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0658682634730539</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.00598802395209581</v>
+        <v>0.00480769230769231</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -5429,10 +5429,10 @@
         <v>-1.52366056405847</v>
       </c>
       <c r="X43" t="n">
-        <v>0.365269461077844</v>
+        <v>0.924242424242424</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.658682634730539</v>
+        <v>0.528846153846154</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -5521,10 +5521,10 @@
         <v>-3.252938385209</v>
       </c>
       <c r="X44" t="n">
-        <v>0.311377245508982</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.311377245508982</v>
+        <v>0.25</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -5613,10 +5613,10 @@
         <v>-1.38894109256351</v>
       </c>
       <c r="X45" t="n">
-        <v>0.233532934131737</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.143712574850299</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -5705,10 +5705,10 @@
         <v>-1.08426005002622</v>
       </c>
       <c r="X46" t="n">
-        <v>0.179640718562874</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.658682634730539</v>
+        <v>0.528846153846154</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -5797,10 +5797,10 @@
         <v>-1.42586743297883</v>
       </c>
       <c r="X47" t="n">
-        <v>0.389221556886228</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.850299401197605</v>
+        <v>0.682692307692308</v>
       </c>
       <c r="Z47" t="s">
         <v>121</v>
@@ -5889,10 +5889,10 @@
         <v>-0.653879999928194</v>
       </c>
       <c r="X48" t="n">
-        <v>0.341317365269461</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.81437125748503</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="Z48" t="s">
         <v>123</v>
@@ -5981,10 +5981,10 @@
         <v>0.389138154198551</v>
       </c>
       <c r="X49" t="n">
-        <v>0.197604790419162</v>
+        <v>0.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.383233532934132</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="Z49" t="s">
         <v>125</v>
@@ -6073,10 +6073,10 @@
         <v>-1.1424027402019</v>
       </c>
       <c r="X50" t="n">
-        <v>0.383233532934132</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.958083832335329</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="Z50" t="s">
         <v>127</v>
@@ -6165,10 +6165,10 @@
         <v>-0.45247791219306</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.0658682634730539</v>
+        <v>0.0528846153846154</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -6257,10 +6257,10 @@
         <v>0.276878946943583</v>
       </c>
       <c r="X52" t="n">
-        <v>0.137724550898204</v>
+        <v>0.348484848484849</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.155688622754491</v>
+        <v>0.125</v>
       </c>
       <c r="Z52" t="s">
         <v>131</v>
@@ -6349,10 +6349,10 @@
         <v>1.77036038620845</v>
       </c>
       <c r="X53" t="n">
-        <v>0.143712574850299</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.694610778443114</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -6441,10 +6441,10 @@
         <v>-2.61282705844263</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0898203592814371</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.131736526946108</v>
+        <v>0.105769230769231</v>
       </c>
       <c r="Z54" t="s">
         <v>135</v>
@@ -6533,10 +6533,10 @@
         <v>-0.118463029471037</v>
       </c>
       <c r="X55" t="n">
-        <v>0.389221556886228</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.08383233532934</v>
+        <v>0.870192307692308</v>
       </c>
       <c r="Z55" t="s">
         <v>137</v>
@@ -6625,10 +6625,10 @@
         <v>-1.25652921002479</v>
       </c>
       <c r="X56" t="n">
-        <v>0.107784431137725</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.227544910179641</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Z56" t="s">
         <v>139</v>
@@ -6717,10 +6717,10 @@
         <v>0.0344755691728454</v>
       </c>
       <c r="X57" t="n">
-        <v>0.137724550898204</v>
+        <v>0.348484848484849</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.598802395209581</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="Z57" t="s">
         <v>141</v>
@@ -6809,10 +6809,10 @@
         <v>1.45468583546142</v>
       </c>
       <c r="X58" t="n">
-        <v>0.131736526946108</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.586826347305389</v>
+        <v>0.471153846153846</v>
       </c>
       <c r="Z58" t="s">
         <v>143</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.197604790419162</v>
+        <v>0.158653846153846</v>
       </c>
       <c r="Z59" t="s">
         <v>145</v>
@@ -6993,10 +6993,10 @@
         <v>-3.66732948971759</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0778443113772455</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.0598802395209581</v>
+        <v>0.0480769230769231</v>
       </c>
       <c r="Z60" t="s">
         <v>147</v>
@@ -7085,10 +7085,10 @@
         <v>-0.435835335630117</v>
       </c>
       <c r="X61" t="n">
-        <v>0.263473053892216</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.652694610778443</v>
+        <v>0.524038461538462</v>
       </c>
       <c r="Z61" t="s">
         <v>149</v>
@@ -7177,10 +7177,10 @@
         <v>-2.0616870883254</v>
       </c>
       <c r="X62" t="n">
-        <v>0.341317365269461</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.820359281437126</v>
+        <v>0.658653846153846</v>
       </c>
       <c r="Z62" t="s">
         <v>151</v>
@@ -7269,10 +7269,10 @@
         <v>1.28242542255481</v>
       </c>
       <c r="X63" t="n">
-        <v>0.275449101796407</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.838323353293413</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="Z63" t="s">
         <v>153</v>
@@ -7361,10 +7361,10 @@
         <v>-1.6102016147596</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0838323353293413</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0838323353293413</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -7453,10 +7453,10 @@
         <v>0.334109128512555</v>
       </c>
       <c r="X65" t="n">
-        <v>0.143712574850299</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.173652694610778</v>
+        <v>0.139423076923077</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -7545,10 +7545,10 @@
         <v>-1.90437527858744</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0658682634730539</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0838323353293413</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -7637,10 +7637,10 @@
         <v>-3.74014509743048</v>
       </c>
       <c r="X67" t="n">
-        <v>0.131736526946108</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.143712574850299</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -7729,10 +7729,10 @@
         <v>-0.140031812863839</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0898203592814371</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.101796407185629</v>
+        <v>0.0817307692307692</v>
       </c>
       <c r="Z68" t="s">
         <v>163</v>
@@ -7821,10 +7821,10 @@
         <v>-1.27178730355879</v>
       </c>
       <c r="X69" t="n">
-        <v>0.179640718562874</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.335329341317365</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="Z69" t="s">
         <v>165</v>
@@ -7913,10 +7913,10 @@
         <v>1.69306604221762</v>
       </c>
       <c r="X70" t="n">
-        <v>0.0239520958083832</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.227544910179641</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Z70" t="s">
         <v>167</v>
@@ -8005,10 +8005,10 @@
         <v>-1.80163155205069</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0419161676646707</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0538922155688623</v>
+        <v>0.0432692307692308</v>
       </c>
       <c r="Z71" t="s">
         <v>169</v>
@@ -8097,10 +8097,10 @@
         <v>-0.812454080801411</v>
       </c>
       <c r="X72" t="n">
-        <v>0.395209580838323</v>
+        <v>1</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.17365269461078</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="Z72" t="s">
         <v>171</v>
@@ -8189,10 +8189,10 @@
         <v>-1.08981568145297</v>
       </c>
       <c r="X73" t="n">
-        <v>0.305389221556886</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.347305389221557</v>
+        <v>0.278846153846154</v>
       </c>
       <c r="Z73" t="s">
         <v>173</v>
@@ -8281,10 +8281,10 @@
         <v>-1.1747201042696</v>
       </c>
       <c r="X74" t="n">
-        <v>0.341317365269461</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.652694610778443</v>
+        <v>0.524038461538462</v>
       </c>
       <c r="Z74" t="s">
         <v>175</v>
@@ -8373,10 +8373,10 @@
         <v>-1.52221197738944</v>
       </c>
       <c r="X75" t="n">
-        <v>0.191616766467066</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.137724550898204</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Z75" t="s">
         <v>177</v>
@@ -8465,10 +8465,10 @@
         <v>-2.26762798485696</v>
       </c>
       <c r="X76" t="n">
-        <v>0.203592814371257</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.191616766467066</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="Z76" t="s">
         <v>179</v>
@@ -8557,10 +8557,10 @@
         <v>-1.88973297593044</v>
       </c>
       <c r="X77" t="n">
-        <v>0.359281437125749</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.604790419161677</v>
+        <v>0.485576923076923</v>
       </c>
       <c r="Z77" t="s">
         <v>181</v>
@@ -8649,10 +8649,10 @@
         <v>-0.521228128220011</v>
       </c>
       <c r="X78" t="n">
-        <v>0.377245508982036</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.19161676646707</v>
+        <v>0.956730769230769</v>
       </c>
       <c r="Z78" t="s">
         <v>183</v>
@@ -8741,10 +8741,10 @@
         <v>-1.16332435847148</v>
       </c>
       <c r="X79" t="n">
-        <v>0.323353293413174</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.562874251497006</v>
+        <v>0.451923076923077</v>
       </c>
       <c r="Z79" t="s">
         <v>185</v>
@@ -8833,10 +8833,10 @@
         <v>-1.68133687645758</v>
       </c>
       <c r="X80" t="n">
-        <v>0.281437125748503</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.305389221556886</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Z80" t="s">
         <v>187</v>
@@ -8925,10 +8925,10 @@
         <v>-0.285457843275423</v>
       </c>
       <c r="X81" t="n">
-        <v>0.341317365269461</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.802395209580838</v>
+        <v>0.644230769230769</v>
       </c>
       <c r="Z81" t="s">
         <v>189</v>
@@ -9017,10 +9017,10 @@
         <v>2.42966197710351</v>
       </c>
       <c r="X82" t="n">
-        <v>0.143712574850299</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.245508982035928</v>
+        <v>0.197115384615385</v>
       </c>
       <c r="Z82" t="s">
         <v>191</v>
@@ -9109,10 +9109,10 @@
         <v>-2.07625263366504</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0778443113772455</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.101796407185629</v>
+        <v>0.0817307692307692</v>
       </c>
       <c r="Z83" t="s">
         <v>193</v>
@@ -9201,10 +9201,10 @@
         <v>0.454839417929756</v>
       </c>
       <c r="X84" t="n">
-        <v>0.37125748502994</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.994011976047904</v>
+        <v>0.798076923076923</v>
       </c>
       <c r="Z84" t="s">
         <v>195</v>
@@ -9293,10 +9293,10 @@
         <v>-4.94177901445494</v>
       </c>
       <c r="X85" t="n">
-        <v>0.131736526946108</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.365269461077844</v>
+        <v>0.293269230769231</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -9385,10 +9385,10 @@
         <v>-1.87995628655212</v>
       </c>
       <c r="X86" t="n">
-        <v>0.239520958083832</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.125748502994012</v>
+        <v>0.100961538461538</v>
       </c>
       <c r="Z86" t="s">
         <v>199</v>
@@ -9477,10 +9477,10 @@
         <v>-0.140486911705109</v>
       </c>
       <c r="X87" t="n">
-        <v>0.341317365269461</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.604790419161677</v>
+        <v>0.485576923076923</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -9569,10 +9569,10 @@
         <v>2.02555072726306</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0838323353293413</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.29940119760479</v>
+        <v>0.240384615384615</v>
       </c>
       <c r="Z88" t="s">
         <v>203</v>
@@ -9661,10 +9661,10 @@
         <v>2.18248865709717</v>
       </c>
       <c r="X89" t="n">
-        <v>0.197604790419162</v>
+        <v>0.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.988023952095808</v>
+        <v>0.793269230769231</v>
       </c>
       <c r="Z89" t="s">
         <v>205</v>
@@ -9753,10 +9753,10 @@
         <v>-0.329582473614018</v>
       </c>
       <c r="X90" t="n">
-        <v>0.0958083832335329</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.269461077844311</v>
+        <v>0.216346153846154</v>
       </c>
       <c r="Z90" t="s">
         <v>207</v>
@@ -9845,10 +9845,10 @@
         <v>-2.63368686328415</v>
       </c>
       <c r="X91" t="n">
-        <v>0.203592814371257</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.18562874251497</v>
+        <v>0.149038461538462</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -9937,10 +9937,10 @@
         <v>0.302083929164696</v>
       </c>
       <c r="X92" t="n">
-        <v>0.0538922155688623</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.173652694610778</v>
+        <v>0.139423076923077</v>
       </c>
       <c r="Z92" t="s">
         <v>211</v>
@@ -10029,10 +10029,10 @@
         <v>3.29636873313728</v>
       </c>
       <c r="X93" t="n">
-        <v>0.11377245508982</v>
+        <v>0.287878787878788</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.67065868263473</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="Z93" t="s">
         <v>213</v>
@@ -10121,10 +10121,10 @@
         <v>-0.90864306435975</v>
       </c>
       <c r="X94" t="n">
-        <v>0.0598802395209581</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.0288461538461538</v>
       </c>
       <c r="Z94" t="s">
         <v>215</v>
@@ -10213,10 +10213,10 @@
         <v>-0.696863838827366</v>
       </c>
       <c r="X95" t="n">
-        <v>0.389221556886228</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.04790419161677</v>
+        <v>0.841346153846154</v>
       </c>
       <c r="Z95" t="s">
         <v>217</v>
@@ -10305,10 +10305,10 @@
         <v>1.30471089788858</v>
       </c>
       <c r="X96" t="n">
-        <v>0.215568862275449</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.916167664670659</v>
+        <v>0.735576923076923</v>
       </c>
       <c r="Z96" t="s">
         <v>219</v>
@@ -10397,10 +10397,10 @@
         <v>-1.8794651710151</v>
       </c>
       <c r="X97" t="n">
-        <v>0.353293413173653</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.640718562874252</v>
+        <v>0.514423076923077</v>
       </c>
       <c r="Z97" t="s">
         <v>221</v>
@@ -10489,10 +10489,10 @@
         <v>-9.15705784490087</v>
       </c>
       <c r="X98" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.00598802395209581</v>
+        <v>0.00480769230769231</v>
       </c>
       <c r="Z98" t="s">
         <v>223</v>
@@ -10581,10 +10581,10 @@
         <v>3.276356595713</v>
       </c>
       <c r="X99" t="n">
-        <v>0.00598802395209581</v>
+        <v>0.0151515151515152</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.179640718562874</v>
+        <v>0.144230769230769</v>
       </c>
       <c r="Z99" t="s">
         <v>225</v>
@@ -10673,10 +10673,10 @@
         <v>-1.09141456518156</v>
       </c>
       <c r="X100" t="n">
-        <v>0.395209580838323</v>
+        <v>1</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.18562874251497</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="Z100" t="s">
         <v>227</v>
@@ -10765,10 +10765,10 @@
         <v>1.30778584436921</v>
       </c>
       <c r="X101" t="n">
-        <v>0.269461077844311</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.916167664670659</v>
+        <v>0.735576923076923</v>
       </c>
       <c r="Z101" t="s">
         <v>229</v>
@@ -10857,10 +10857,10 @@
         <v>1.52178385155023</v>
       </c>
       <c r="X102" t="n">
-        <v>0.317365269461078</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.754491017964072</v>
+        <v>0.605769230769231</v>
       </c>
       <c r="Z102" t="s">
         <v>231</v>
@@ -10949,10 +10949,10 @@
         <v>-0.659327414765332</v>
       </c>
       <c r="X103" t="n">
-        <v>0.341317365269461</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.778443113772455</v>
+        <v>0.625</v>
       </c>
       <c r="Z103" t="s">
         <v>233</v>
@@ -11041,10 +11041,10 @@
         <v>-0.721736300807221</v>
       </c>
       <c r="X104" t="n">
-        <v>0.317365269461078</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.67065868263473</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="Z104" t="s">
         <v>235</v>
@@ -11133,10 +11133,10 @@
         <v>0.322408504314103</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0778443113772455</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.137724550898204</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Z105" t="s">
         <v>237</v>
@@ -11225,10 +11225,10 @@
         <v>-0.384942886703724</v>
       </c>
       <c r="X106" t="n">
-        <v>0.0778443113772455</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.137724550898204</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Z106" t="s">
         <v>239</v>
@@ -11317,10 +11317,10 @@
         <v>0.182638262113829</v>
       </c>
       <c r="X107" t="n">
-        <v>0.365269461077844</v>
+        <v>0.924242424242424</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.05389221556886</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="Z107" t="s">
         <v>241</v>
@@ -11409,10 +11409,10 @@
         <v>-1.3724406142326</v>
       </c>
       <c r="X108" t="n">
-        <v>0.377245508982036</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.81437125748503</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="Z108" t="s">
         <v>243</v>
@@ -11501,10 +11501,10 @@
         <v>2.31832255994457</v>
       </c>
       <c r="X109" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="Z109" t="s">
         <v>245</v>
@@ -11593,10 +11593,10 @@
         <v>2.18364481208335</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0119760479041916</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.143712574850299</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Z110" t="s">
         <v>247</v>
@@ -11685,10 +11685,10 @@
         <v>-0.822780320674135</v>
       </c>
       <c r="X111" t="n">
-        <v>0.377245508982036</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.62874251497006</v>
+        <v>0.504807692307692</v>
       </c>
       <c r="Z111" t="s">
         <v>249</v>
@@ -11777,10 +11777,10 @@
         <v>6.03944191127605</v>
       </c>
       <c r="X112" t="n">
-        <v>0.0119760479041916</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.137724550898204</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Z112" t="s">
         <v>251</v>
@@ -11869,10 +11869,10 @@
         <v>-4.2364587893056</v>
       </c>
       <c r="X113" t="n">
-        <v>0.119760479041916</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.131736526946108</v>
+        <v>0.105769230769231</v>
       </c>
       <c r="Z113" t="s">
         <v>253</v>
@@ -11961,10 +11961,10 @@
         <v>-0.404308903031634</v>
       </c>
       <c r="X114" t="n">
-        <v>0.275449101796407</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.574850299401198</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="Z114" t="s">
         <v>255</v>
@@ -12053,10 +12053,10 @@
         <v>-1.15729321832653</v>
       </c>
       <c r="X115" t="n">
-        <v>0.149700598802395</v>
+        <v>0.378787878787879</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.125748502994012</v>
+        <v>0.100961538461538</v>
       </c>
       <c r="Z115" t="s">
         <v>257</v>
@@ -12145,10 +12145,10 @@
         <v>-1.02815162729794</v>
       </c>
       <c r="X116" t="n">
-        <v>0.233532934131737</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.455089820359281</v>
+        <v>0.365384615384615</v>
       </c>
       <c r="Z116" t="s">
         <v>259</v>
@@ -12237,10 +12237,10 @@
         <v>0.209340732502876</v>
       </c>
       <c r="X117" t="n">
-        <v>0.269461077844311</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.502994011976048</v>
+        <v>0.403846153846154</v>
       </c>
       <c r="Z117" t="s">
         <v>261</v>
@@ -12329,10 +12329,10 @@
         <v>0.929173161463337</v>
       </c>
       <c r="X118" t="n">
-        <v>0.119760479041916</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.305389221556886</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Z118" t="s">
         <v>263</v>
@@ -12421,7 +12421,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X119" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y119" t="n">
         <v>0</v>
@@ -12513,10 +12513,10 @@
         <v>-2.2429303730638</v>
       </c>
       <c r="X120" t="n">
-        <v>0.287425149700599</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.221556886227545</v>
+        <v>0.177884615384615</v>
       </c>
       <c r="Z120" t="s">
         <v>267</v>
@@ -12605,10 +12605,10 @@
         <v>-0.401005023103982</v>
       </c>
       <c r="X121" t="n">
-        <v>0.347305389221557</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.592814371257485</v>
+        <v>0.475961538461538</v>
       </c>
       <c r="Z121" t="s">
         <v>269</v>
@@ -12697,10 +12697,10 @@
         <v>-0.526559740682698</v>
       </c>
       <c r="X122" t="n">
-        <v>0.329341317365269</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.688622754491018</v>
+        <v>0.552884615384615</v>
       </c>
       <c r="Z122" t="s">
         <v>271</v>
@@ -12789,10 +12789,10 @@
         <v>-0.886989633512381</v>
       </c>
       <c r="X123" t="n">
-        <v>0.275449101796407</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.48502994011976</v>
+        <v>0.389423076923077</v>
       </c>
       <c r="Z123" t="s">
         <v>273</v>
@@ -12881,10 +12881,10 @@
         <v>0.0796840583662094</v>
       </c>
       <c r="X124" t="n">
-        <v>0.119760479041916</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.161676646706587</v>
+        <v>0.129807692307692</v>
       </c>
       <c r="Z124" t="s">
         <v>275</v>
@@ -12973,10 +12973,10 @@
         <v>-0.771314010864656</v>
       </c>
       <c r="X125" t="n">
-        <v>0.389221556886228</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.844311377245509</v>
+        <v>0.677884615384615</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -13065,10 +13065,10 @@
         <v>-0.4458888679898</v>
       </c>
       <c r="X126" t="n">
-        <v>0.191616766467066</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.317365269461078</v>
+        <v>0.254807692307692</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.209580838323353</v>
+        <v>0.168269230769231</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -13249,10 +13249,10 @@
         <v>-1.39168171967724</v>
       </c>
       <c r="X128" t="n">
-        <v>0.239520958083832</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.473053892215569</v>
+        <v>0.379807692307692</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -13341,10 +13341,10 @@
         <v>0.123817304370529</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0419161676646707</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.137724550898204</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -13433,10 +13433,10 @@
         <v>-1.69514125690069</v>
       </c>
       <c r="X130" t="n">
-        <v>0.155688622754491</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.179640718562874</v>
+        <v>0.144230769230769</v>
       </c>
       <c r="Z130" t="s">
         <v>287</v>
@@ -13525,10 +13525,10 @@
         <v>1.05060468219281</v>
       </c>
       <c r="X131" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.143712574850299</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -13617,10 +13617,10 @@
         <v>-0.227147198686943</v>
       </c>
       <c r="X132" t="n">
-        <v>0.281437125748503</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.383233532934132</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -13709,10 +13709,10 @@
         <v>-1.0846519971378</v>
       </c>
       <c r="X133" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -13801,10 +13801,10 @@
         <v>2.44337205833977</v>
       </c>
       <c r="X134" t="n">
-        <v>0.029940119760479</v>
+        <v>0.0757575757575758</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.209580838323353</v>
+        <v>0.168269230769231</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -13893,10 +13893,10 @@
         <v>2.65888662344358</v>
       </c>
       <c r="X135" t="n">
-        <v>0.0598802395209581</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.227544910179641</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Z135" t="s">
         <v>297</v>
@@ -13985,10 +13985,10 @@
         <v>0.47507983280337</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0838323353293413</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.155688622754491</v>
+        <v>0.125</v>
       </c>
       <c r="Z136" t="s">
         <v>299</v>
@@ -14077,10 +14077,10 @@
         <v>-0.524972834097392</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0598802395209581</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0598802395209581</v>
+        <v>0.0480769230769231</v>
       </c>
       <c r="Z137" t="s">
         <v>301</v>
@@ -14169,10 +14169,10 @@
         <v>-2.05858806696217</v>
       </c>
       <c r="X138" t="n">
-        <v>0.119760479041916</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.131736526946108</v>
+        <v>0.105769230769231</v>
       </c>
       <c r="Z138" t="s">
         <v>303</v>
@@ -14261,10 +14261,10 @@
         <v>-4.21233802224573</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0718562874251497</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.580838323353293</v>
+        <v>0.466346153846154</v>
       </c>
       <c r="Z139" t="s">
         <v>305</v>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.25748502994012</v>
+        <v>0.206730769230769</v>
       </c>
       <c r="Z140" t="s">
         <v>307</v>
@@ -14445,10 +14445,10 @@
         <v>-2.99951619360561</v>
       </c>
       <c r="X141" t="n">
-        <v>0.0898203592814371</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0479041916167665</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="Z141" t="s">
         <v>309</v>
@@ -14537,10 +14537,10 @@
         <v>1.48172225018069</v>
       </c>
       <c r="X142" t="n">
-        <v>0.0359281437125748</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.0838323353293413</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="Z142" t="s">
         <v>311</v>
@@ -14629,10 +14629,10 @@
         <v>-2.03659992062961</v>
       </c>
       <c r="X143" t="n">
-        <v>0.227544910179641</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.425149700598802</v>
+        <v>0.341346153846154</v>
       </c>
       <c r="Z143" t="s">
         <v>313</v>
@@ -14721,10 +14721,10 @@
         <v>2.09159982245351</v>
       </c>
       <c r="X144" t="n">
-        <v>0.383233532934132</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y144" t="n">
-        <v>1.13173652694611</v>
+        <v>0.908653846153846</v>
       </c>
       <c r="Z144" t="s">
         <v>315</v>
@@ -14813,10 +14813,10 @@
         <v>0.151426472426523</v>
       </c>
       <c r="X145" t="n">
-        <v>0.0838323353293413</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.227544910179641</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Z145" t="s">
         <v>317</v>
@@ -14905,10 +14905,10 @@
         <v>-0.333056932264216</v>
       </c>
       <c r="X146" t="n">
-        <v>0.353293413173653</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.74251497005988</v>
+        <v>0.596153846153846</v>
       </c>
       <c r="Z146" t="s">
         <v>319</v>
@@ -14997,10 +14997,10 @@
         <v>1.00595072063577</v>
       </c>
       <c r="X147" t="n">
-        <v>0.0958083832335329</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.329341317365269</v>
+        <v>0.264423076923077</v>
       </c>
       <c r="Z147" t="s">
         <v>321</v>
@@ -15089,10 +15089,10 @@
         <v>-2.24350257286015</v>
       </c>
       <c r="X148" t="n">
-        <v>0.18562874251497</v>
+        <v>0.46969696969697</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.305389221556886</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Z148" t="s">
         <v>323</v>
@@ -15181,10 +15181,10 @@
         <v>-3.78670991750696</v>
       </c>
       <c r="X149" t="n">
-        <v>0.0419161676646707</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0179640718562874</v>
+        <v>0.0144230769230769</v>
       </c>
       <c r="Z149" t="s">
         <v>325</v>
@@ -15273,10 +15273,10 @@
         <v>-1.67725040442293</v>
       </c>
       <c r="X150" t="n">
-        <v>0.173652694610778</v>
+        <v>0.439393939393939</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.245508982035928</v>
+        <v>0.197115384615385</v>
       </c>
       <c r="Z150" t="s">
         <v>327</v>
@@ -15365,10 +15365,10 @@
         <v>2.19548236803302</v>
       </c>
       <c r="X151" t="n">
-        <v>0.353293413173653</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="Y151" t="n">
-        <v>1.16167664670659</v>
+        <v>0.932692307692308</v>
       </c>
       <c r="Z151" t="s">
         <v>329</v>
@@ -15457,10 +15457,10 @@
         <v>1.47473451705607</v>
       </c>
       <c r="X152" t="n">
-        <v>0.37125748502994</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.964071856287425</v>
+        <v>0.774038461538462</v>
       </c>
       <c r="Z152" t="s">
         <v>331</v>
@@ -15549,10 +15549,10 @@
         <v>-1.36890117527768</v>
       </c>
       <c r="X153" t="n">
-        <v>0.317365269461078</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.81437125748503</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="Z153" t="s">
         <v>333</v>
@@ -15641,10 +15641,10 @@
         <v>-1.1120292615705</v>
       </c>
       <c r="X154" t="n">
-        <v>0.0958083832335329</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.149700598802395</v>
+        <v>0.120192307692308</v>
       </c>
       <c r="Z154" t="s">
         <v>335</v>
@@ -15733,10 +15733,10 @@
         <v>-4.13584650697553</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0538922155688623</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.119760479041916</v>
+        <v>0.0961538461538462</v>
       </c>
       <c r="Z155" t="s">
         <v>337</v>
@@ -15825,10 +15825,10 @@
         <v>0.39832680003855</v>
       </c>
       <c r="X156" t="n">
-        <v>0.0898203592814371</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.353293413173653</v>
+        <v>0.283653846153846</v>
       </c>
       <c r="Z156" t="s">
         <v>339</v>
@@ -15917,10 +15917,10 @@
         <v>0.804128944157387</v>
       </c>
       <c r="X157" t="n">
-        <v>0.0479041916167665</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.167664670658683</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="Z157" t="s">
         <v>341</v>
@@ -16009,10 +16009,10 @@
         <v>0.466655026610048</v>
       </c>
       <c r="X158" t="n">
-        <v>0.101796407185629</v>
+        <v>0.257575757575758</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.18562874251497</v>
+        <v>0.149038461538462</v>
       </c>
       <c r="Z158" t="s">
         <v>343</v>
@@ -16101,10 +16101,10 @@
         <v>-0.568401911296286</v>
       </c>
       <c r="X159" t="n">
-        <v>0.215568862275449</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.598802395209581</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="Z159" t="s">
         <v>345</v>
@@ -16193,10 +16193,10 @@
         <v>-3.24030865258583</v>
       </c>
       <c r="X160" t="n">
-        <v>0.0778443113772455</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.0958083832335329</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="Z160" t="s">
         <v>347</v>
@@ -16285,10 +16285,10 @@
         <v>-0.00038904595756092</v>
       </c>
       <c r="X161" t="n">
-        <v>0.365269461077844</v>
+        <v>0.924242424242424</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.808383233532934</v>
+        <v>0.649038461538462</v>
       </c>
       <c r="Z161" t="s">
         <v>349</v>
@@ -16377,10 +16377,10 @@
         <v>0.672372678483652</v>
       </c>
       <c r="X162" t="n">
-        <v>0.335329341317365</v>
+        <v>0.848484848484849</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.772455089820359</v>
+        <v>0.620192307692308</v>
       </c>
       <c r="Z162" t="s">
         <v>351</v>
@@ -16469,10 +16469,10 @@
         <v>-0.257630543167643</v>
       </c>
       <c r="X163" t="n">
-        <v>0.347305389221557</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.544910179640719</v>
+        <v>0.4375</v>
       </c>
       <c r="Z163" t="s">
         <v>353</v>
@@ -16561,10 +16561,10 @@
         <v>-1.57892169037177</v>
       </c>
       <c r="X164" t="n">
-        <v>0.0598802395209581</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.11377245508982</v>
+        <v>0.0913461538461538</v>
       </c>
       <c r="Z164" t="s">
         <v>355</v>
@@ -16653,10 +16653,10 @@
         <v>-3.24542943315012</v>
       </c>
       <c r="X165" t="n">
-        <v>0.143712574850299</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.0598802395209581</v>
+        <v>0.0480769230769231</v>
       </c>
       <c r="Z165" t="s">
         <v>357</v>
@@ -16745,10 +16745,10 @@
         <v>-1.24118730458649</v>
       </c>
       <c r="X166" t="n">
-        <v>0.179640718562874</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.191616766467066</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="Z166" t="s">
         <v>359</v>
@@ -16837,10 +16837,10 @@
         <v>3.60780345980161</v>
       </c>
       <c r="X167" t="n">
-        <v>0.263473053892216</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y167" t="n">
-        <v>1.10179640718563</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="Z167" t="s">
         <v>361</v>
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.143712574850299</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Z168" t="s">
         <v>363</v>
@@ -17127,10 +17127,10 @@
         <v>0.329724954785079</v>
       </c>
       <c r="X2" t="n">
-        <v>0.385714285714286</v>
+        <v>0.259615384615385</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.321428571428571</v>
+        <v>0.319148936170213</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -17219,10 +17219,10 @@
         <v>0.163126067316455</v>
       </c>
       <c r="X3" t="n">
-        <v>0.185714285714286</v>
+        <v>0.125</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.192857142857143</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -17311,10 +17311,10 @@
         <v>-0.220229635914807</v>
       </c>
       <c r="X4" t="n">
-        <v>0.642857142857143</v>
+        <v>0.432692307692308</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.492857142857143</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="Z4" t="s">
         <v>37</v>
@@ -17403,10 +17403,10 @@
         <v>-0.0903157882061824</v>
       </c>
       <c r="X5" t="n">
-        <v>0.771428571428571</v>
+        <v>0.519230769230769</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.585714285714286</v>
+        <v>0.581560283687943</v>
       </c>
       <c r="Z5" t="s">
         <v>39</v>
@@ -17495,10 +17495,10 @@
         <v>3.92383362475882</v>
       </c>
       <c r="X6" t="n">
-        <v>0.157142857142857</v>
+        <v>0.105769230769231</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.235714285714286</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="Z6" t="s">
         <v>41</v>
@@ -17587,10 +17587,10 @@
         <v>-0.2653621379202</v>
       </c>
       <c r="X7" t="n">
-        <v>1.25</v>
+        <v>0.841346153846154</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.75</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="Z7" t="s">
         <v>43</v>
@@ -17679,10 +17679,10 @@
         <v>1.65268679388816</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0857142857142857</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.135714285714286</v>
+        <v>0.134751773049645</v>
       </c>
       <c r="Z8" t="s">
         <v>45</v>
@@ -17771,10 +17771,10 @@
         <v>-0.073369195313716</v>
       </c>
       <c r="X9" t="n">
-        <v>0.328571428571429</v>
+        <v>0.221153846153846</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
@@ -17863,10 +17863,10 @@
         <v>-0.82971783370506</v>
       </c>
       <c r="X10" t="n">
-        <v>0.664285714285714</v>
+        <v>0.447115384615385</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.421428571428571</v>
+        <v>0.418439716312057</v>
       </c>
       <c r="Z10" t="s">
         <v>49</v>
@@ -17955,10 +17955,10 @@
         <v>0.647512990987618</v>
       </c>
       <c r="X11" t="n">
-        <v>0.378571428571429</v>
+        <v>0.254807692307692</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.278571428571429</v>
+        <v>0.276595744680851</v>
       </c>
       <c r="Z11" t="s">
         <v>51</v>
@@ -18047,10 +18047,10 @@
         <v>-0.678225737280757</v>
       </c>
       <c r="X12" t="n">
-        <v>0.957142857142857</v>
+        <v>0.644230769230769</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.614285714285714</v>
+        <v>0.609929078014184</v>
       </c>
       <c r="Z12" t="s">
         <v>53</v>
@@ -18139,10 +18139,10 @@
         <v>0.103527786375506</v>
       </c>
       <c r="X13" t="n">
-        <v>0.985714285714286</v>
+        <v>0.663461538461538</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="Z13" t="s">
         <v>55</v>
@@ -18231,10 +18231,10 @@
         <v>-0.192480852022323</v>
       </c>
       <c r="X14" t="n">
-        <v>1.33571428571429</v>
+        <v>0.899038461538462</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.921428571428571</v>
+        <v>0.914893617021277</v>
       </c>
       <c r="Z14" t="s">
         <v>57</v>
@@ -18323,10 +18323,10 @@
         <v>-1.54655780663656</v>
       </c>
       <c r="X15" t="n">
-        <v>0.185714285714286</v>
+        <v>0.125</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.114285714285714</v>
+        <v>0.113475177304965</v>
       </c>
       <c r="Z15" t="s">
         <v>61</v>
@@ -18415,10 +18415,10 @@
         <v>-0.0253365025798879</v>
       </c>
       <c r="X16" t="n">
-        <v>0.414285714285714</v>
+        <v>0.278846153846154</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.414285714285714</v>
+        <v>0.411347517730496</v>
       </c>
       <c r="Z16" t="s">
         <v>63</v>
@@ -18507,10 +18507,10 @@
         <v>-0.350018963684694</v>
       </c>
       <c r="X17" t="n">
-        <v>0.414285714285714</v>
+        <v>0.278846153846154</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.235714285714286</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="Z17" t="s">
         <v>65</v>
@@ -18599,10 +18599,10 @@
         <v>-0.211936449116985</v>
       </c>
       <c r="X18" t="n">
-        <v>1.08571428571429</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.709219858156028</v>
       </c>
       <c r="Z18" t="s">
         <v>67</v>
@@ -18691,10 +18691,10 @@
         <v>-0.411272960252101</v>
       </c>
       <c r="X19" t="n">
-        <v>0.621428571428571</v>
+        <v>0.418269230769231</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.421428571428571</v>
+        <v>0.418439716312057</v>
       </c>
       <c r="Z19" t="s">
         <v>69</v>
@@ -18783,10 +18783,10 @@
         <v>-0.0241389338457373</v>
       </c>
       <c r="X20" t="n">
-        <v>1.09285714285714</v>
+        <v>0.735576923076923</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.721428571428571</v>
+        <v>0.716312056737589</v>
       </c>
       <c r="Z20" t="s">
         <v>71</v>
@@ -18875,10 +18875,10 @@
         <v>-1.80641231653123</v>
       </c>
       <c r="X21" t="n">
-        <v>0.178571428571429</v>
+        <v>0.120192307692308</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0642857142857143</v>
+        <v>0.0638297872340425</v>
       </c>
       <c r="Z21" t="s">
         <v>73</v>
@@ -18967,10 +18967,10 @@
         <v>-0.374473681841697</v>
       </c>
       <c r="X22" t="n">
-        <v>1.35714285714286</v>
+        <v>0.913461538461538</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.892857142857143</v>
+        <v>0.886524822695035</v>
       </c>
       <c r="Z22" t="s">
         <v>83</v>
@@ -19059,10 +19059,10 @@
         <v>-0.741868333522489</v>
       </c>
       <c r="X23" t="n">
-        <v>0.364285714285714</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.228571428571429</v>
+        <v>0.226950354609929</v>
       </c>
       <c r="Z23" t="s">
         <v>85</v>
@@ -19151,10 +19151,10 @@
         <v>-0.252620595091168</v>
       </c>
       <c r="X24" t="n">
-        <v>1.35714285714286</v>
+        <v>0.913461538461538</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.892857142857143</v>
+        <v>0.886524822695035</v>
       </c>
       <c r="Z24" t="s">
         <v>89</v>
@@ -19243,10 +19243,10 @@
         <v>0.691393962671521</v>
       </c>
       <c r="X25" t="n">
-        <v>0.571428571428571</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.414285714285714</v>
+        <v>0.411347517730496</v>
       </c>
       <c r="Z25" t="s">
         <v>91</v>
@@ -19335,10 +19335,10 @@
         <v>-0.652075910319604</v>
       </c>
       <c r="X26" t="n">
-        <v>1.22857142857143</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.771428571428571</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="Z26" t="s">
         <v>93</v>
@@ -19427,10 +19427,10 @@
         <v>0.383014354296388</v>
       </c>
       <c r="X27" t="n">
-        <v>0.657142857142857</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.378571428571429</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="Z27" t="s">
         <v>95</v>
@@ -19519,10 +19519,10 @@
         <v>-0.239798034195135</v>
       </c>
       <c r="X28" t="n">
-        <v>1.42857142857143</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.978571428571429</v>
+        <v>0.971631205673759</v>
       </c>
       <c r="Z28" t="s">
         <v>97</v>
@@ -19611,10 +19611,10 @@
         <v>-2.19141434804792</v>
       </c>
       <c r="X29" t="n">
-        <v>0.35</v>
+        <v>0.235576923076923</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.135714285714286</v>
+        <v>0.134751773049645</v>
       </c>
       <c r="Z29" t="s">
         <v>99</v>
@@ -19703,10 +19703,10 @@
         <v>-0.049685422724355</v>
       </c>
       <c r="X30" t="n">
-        <v>1.25</v>
+        <v>0.841346153846154</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.871428571428571</v>
+        <v>0.865248226950355</v>
       </c>
       <c r="Z30" t="s">
         <v>101</v>
@@ -19795,10 +19795,10 @@
         <v>0.602466541519733</v>
       </c>
       <c r="X31" t="n">
-        <v>0.321428571428571</v>
+        <v>0.216346153846154</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.242857142857143</v>
+        <v>0.24113475177305</v>
       </c>
       <c r="Z31" t="s">
         <v>103</v>
@@ -19887,10 +19887,10 @@
         <v>0.30856667339044</v>
       </c>
       <c r="X32" t="n">
-        <v>0.214285714285714</v>
+        <v>0.144230769230769</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0928571428571429</v>
+        <v>0.0921985815602837</v>
       </c>
       <c r="Z32" t="s">
         <v>105</v>
@@ -19979,10 +19979,10 @@
         <v>0.211777896229439</v>
       </c>
       <c r="X33" t="n">
-        <v>0.578571428571429</v>
+        <v>0.389423076923077</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.578571428571429</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="Z33" t="s">
         <v>107</v>
@@ -20071,10 +20071,10 @@
         <v>0.0680080552539541</v>
       </c>
       <c r="X34" t="n">
-        <v>0.192857142857143</v>
+        <v>0.129807692307692</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.207142857142857</v>
+        <v>0.205673758865248</v>
       </c>
       <c r="Z34" t="s">
         <v>109</v>
@@ -20163,10 +20163,10 @@
         <v>0.0652136721685644</v>
       </c>
       <c r="X35" t="n">
-        <v>0.785714285714286</v>
+        <v>0.528846153846154</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.5</v>
+        <v>0.49645390070922</v>
       </c>
       <c r="Z35" t="s">
         <v>113</v>
@@ -20255,10 +20255,10 @@
         <v>1.90985309405202</v>
       </c>
       <c r="X36" t="n">
-        <v>0.371428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.35</v>
+        <v>0.347517730496454</v>
       </c>
       <c r="Z36" t="s">
         <v>115</v>
@@ -20347,10 +20347,10 @@
         <v>1.28488301676763</v>
       </c>
       <c r="X37" t="n">
-        <v>0.171428571428571</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.157142857142857</v>
+        <v>0.156028368794326</v>
       </c>
       <c r="Z37" t="s">
         <v>117</v>
@@ -20439,10 +20439,10 @@
         <v>-0.0919264121956122</v>
       </c>
       <c r="X38" t="n">
-        <v>0.785714285714286</v>
+        <v>0.528846153846154</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.521428571428571</v>
+        <v>0.517730496453901</v>
       </c>
       <c r="Z38" t="s">
         <v>119</v>
@@ -20531,10 +20531,10 @@
         <v>-0.782220222677326</v>
       </c>
       <c r="X39" t="n">
-        <v>1.01428571428571</v>
+        <v>0.682692307692308</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="Z39" t="s">
         <v>121</v>
@@ -20623,10 +20623,10 @@
         <v>0.181138309301076</v>
       </c>
       <c r="X40" t="n">
-        <v>0.971428571428571</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6</v>
+        <v>0.595744680851064</v>
       </c>
       <c r="Z40" t="s">
         <v>123</v>
@@ -20715,10 +20715,10 @@
         <v>0.494303468488763</v>
       </c>
       <c r="X41" t="n">
-        <v>0.457142857142857</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.207142857142857</v>
+        <v>0.205673758865248</v>
       </c>
       <c r="Z41" t="s">
         <v>125</v>
@@ -20807,10 +20807,10 @@
         <v>-0.124425803657342</v>
       </c>
       <c r="X42" t="n">
-        <v>1.14285714285714</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.778571428571429</v>
+        <v>0.773049645390071</v>
       </c>
       <c r="Z42" t="s">
         <v>127</v>
@@ -20899,10 +20899,10 @@
         <v>-0.263960830728289</v>
       </c>
       <c r="X43" t="n">
-        <v>0.114285714285714</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.178571428571429</v>
+        <v>0.177304964539007</v>
       </c>
       <c r="Z43" t="s">
         <v>374</v>
@@ -20991,10 +20991,10 @@
         <v>-0.449599190692206</v>
       </c>
       <c r="X44" t="n">
-        <v>0.185714285714286</v>
+        <v>0.125</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.121428571428571</v>
+        <v>0.120567375886525</v>
       </c>
       <c r="Z44" t="s">
         <v>131</v>
@@ -21083,10 +21083,10 @@
         <v>-0.4896294696648</v>
       </c>
       <c r="X45" t="n">
-        <v>0.828571428571429</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.5</v>
+        <v>0.49645390070922</v>
       </c>
       <c r="Z45" t="s">
         <v>133</v>
@@ -21175,10 +21175,10 @@
         <v>0.265052325031016</v>
       </c>
       <c r="X46" t="n">
-        <v>1.29285714285714</v>
+        <v>0.870192307692308</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.921428571428571</v>
+        <v>0.914893617021277</v>
       </c>
       <c r="Z46" t="s">
         <v>137</v>
@@ -21267,10 +21267,10 @@
         <v>-0.513997485462179</v>
       </c>
       <c r="X47" t="n">
-        <v>0.271428571428571</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.185714285714286</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z47" t="s">
         <v>139</v>
@@ -21359,10 +21359,10 @@
         <v>-0.421351992586477</v>
       </c>
       <c r="X48" t="n">
-        <v>0.714285714285714</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.535714285714286</v>
+        <v>0.531914893617021</v>
       </c>
       <c r="Z48" t="s">
         <v>141</v>
@@ -21451,10 +21451,10 @@
         <v>0.837826056445308</v>
       </c>
       <c r="X49" t="n">
-        <v>0.7</v>
+        <v>0.471153846153846</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.457142857142857</v>
+        <v>0.453900709219858</v>
       </c>
       <c r="Z49" t="s">
         <v>143</v>
@@ -21543,10 +21543,10 @@
         <v>-1.54191415956654</v>
       </c>
       <c r="X50" t="n">
-        <v>0.235714285714286</v>
+        <v>0.158653846153846</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.535714285714286</v>
+        <v>0.531914893617021</v>
       </c>
       <c r="Z50" t="s">
         <v>145</v>
@@ -21635,10 +21635,10 @@
         <v>0.262562510668289</v>
       </c>
       <c r="X51" t="n">
-        <v>0.778571428571429</v>
+        <v>0.524038461538462</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.607142857142857</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z51" t="s">
         <v>149</v>
@@ -21727,10 +21727,10 @@
         <v>-0.263306378566839</v>
       </c>
       <c r="X52" t="n">
-        <v>0.978571428571429</v>
+        <v>0.658653846153846</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.671428571428571</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z52" t="s">
         <v>151</v>
@@ -21819,10 +21819,10 @@
         <v>1.51000044094219</v>
       </c>
       <c r="X53" t="n">
-        <v>1</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.842857142857143</v>
+        <v>0.836879432624113</v>
       </c>
       <c r="Z53" t="s">
         <v>153</v>
@@ -21911,10 +21911,10 @@
         <v>-0.437439333379296</v>
       </c>
       <c r="X54" t="n">
-        <v>0.207142857142857</v>
+        <v>0.139423076923077</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.164285714285714</v>
+        <v>0.163120567375887</v>
       </c>
       <c r="Z54" t="s">
         <v>157</v>
@@ -22003,10 +22003,10 @@
         <v>2.40852575612277</v>
       </c>
       <c r="X55" t="n">
-        <v>0.1</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.171428571428571</v>
+        <v>0.170212765957447</v>
       </c>
       <c r="Z55" t="s">
         <v>159</v>
@@ -22095,10 +22095,10 @@
         <v>-0.27949804916824</v>
       </c>
       <c r="X56" t="n">
-        <v>0.4</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.192857142857143</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="Z56" t="s">
         <v>165</v>
@@ -22187,10 +22187,10 @@
         <v>2.84366230450167</v>
       </c>
       <c r="X57" t="n">
-        <v>0.271428571428571</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.478571428571429</v>
+        <v>0.475177304964539</v>
       </c>
       <c r="Z57" t="s">
         <v>167</v>
@@ -22279,10 +22279,10 @@
         <v>-0.233833574154053</v>
       </c>
       <c r="X58" t="n">
-        <v>1.4</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.971428571428571</v>
+        <v>0.964539007092199</v>
       </c>
       <c r="Z58" t="s">
         <v>171</v>
@@ -22371,10 +22371,10 @@
         <v>-0.531494271977012</v>
       </c>
       <c r="X59" t="n">
-        <v>0.414285714285714</v>
+        <v>0.278846153846154</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.235714285714286</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="Z59" t="s">
         <v>173</v>
@@ -22463,10 +22463,10 @@
         <v>0.457618052314292</v>
       </c>
       <c r="X60" t="n">
-        <v>0.778571428571429</v>
+        <v>0.524038461538462</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.607142857142857</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z60" t="s">
         <v>175</v>
@@ -22555,10 +22555,10 @@
         <v>-0.604673252285649</v>
       </c>
       <c r="X61" t="n">
-        <v>0.164285714285714</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.107142857142857</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z61" t="s">
         <v>177</v>
@@ -22647,10 +22647,10 @@
         <v>1.25806033799762</v>
       </c>
       <c r="X62" t="n">
-        <v>0.228571428571429</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.228571428571429</v>
+        <v>0.226950354609929</v>
       </c>
       <c r="Z62" t="s">
         <v>179</v>
@@ -22739,10 +22739,10 @@
         <v>0.914370377774538</v>
       </c>
       <c r="X63" t="n">
-        <v>0.721428571428571</v>
+        <v>0.485576923076923</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.457142857142857</v>
+        <v>0.453900709219858</v>
       </c>
       <c r="Z63" t="s">
         <v>181</v>
@@ -22831,10 +22831,10 @@
         <v>-0.344859857283974</v>
       </c>
       <c r="X64" t="n">
-        <v>1.42142857142857</v>
+        <v>0.956730769230769</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.928571428571429</v>
+        <v>0.921985815602837</v>
       </c>
       <c r="Z64" t="s">
         <v>183</v>
@@ -22923,10 +22923,10 @@
         <v>0.102476098281185</v>
       </c>
       <c r="X65" t="n">
-        <v>0.221428571428571</v>
+        <v>0.149038461538462</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.107142857142857</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z65" t="s">
         <v>376</v>
@@ -23015,10 +23015,10 @@
         <v>0.268647522612099</v>
       </c>
       <c r="X66" t="n">
-        <v>0.671428571428571</v>
+        <v>0.451923076923077</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.464285714285714</v>
+        <v>0.460992907801418</v>
       </c>
       <c r="Z66" t="s">
         <v>185</v>
@@ -23107,10 +23107,10 @@
         <v>0.310074676279359</v>
       </c>
       <c r="X67" t="n">
-        <v>0.364285714285714</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.278571428571429</v>
+        <v>0.276595744680851</v>
       </c>
       <c r="Z67" t="s">
         <v>187</v>
@@ -23199,10 +23199,10 @@
         <v>0.21828921608359</v>
       </c>
       <c r="X68" t="n">
-        <v>0.957142857142857</v>
+        <v>0.644230769230769</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.807142857142857</v>
+        <v>0.801418439716312</v>
       </c>
       <c r="Z68" t="s">
         <v>189</v>
@@ -23291,10 +23291,10 @@
         <v>-0.788005871792477</v>
       </c>
       <c r="X69" t="n">
-        <v>0.292857142857143</v>
+        <v>0.197115384615385</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.192857142857143</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="Z69" t="s">
         <v>191</v>
@@ -23383,10 +23383,10 @@
         <v>-0.563941867834005</v>
       </c>
       <c r="X70" t="n">
-        <v>1.18571428571429</v>
+        <v>0.798076923076923</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.814285714285714</v>
+        <v>0.808510638297872</v>
       </c>
       <c r="Z70" t="s">
         <v>195</v>
@@ -23475,10 +23475,10 @@
         <v>4.57035027777431</v>
       </c>
       <c r="X71" t="n">
-        <v>0.435714285714286</v>
+        <v>0.293269230769231</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.407142857142857</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="Z71" t="s">
         <v>197</v>
@@ -23567,10 +23567,10 @@
         <v>1.02675767125763</v>
       </c>
       <c r="X72" t="n">
-        <v>0.15</v>
+        <v>0.100961538461538</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.185714285714286</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z72" t="s">
         <v>199</v>
@@ -23659,10 +23659,10 @@
         <v>-0.259916725327059</v>
       </c>
       <c r="X73" t="n">
-        <v>0.721428571428571</v>
+        <v>0.485576923076923</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.485714285714286</v>
+        <v>0.482269503546099</v>
       </c>
       <c r="Z73" t="s">
         <v>201</v>
@@ -23751,10 +23751,10 @@
         <v>-0.963766766208403</v>
       </c>
       <c r="X74" t="n">
-        <v>0.357142857142857</v>
+        <v>0.240384615384615</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.342857142857143</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="Z74" t="s">
         <v>203</v>
@@ -23843,10 +23843,10 @@
         <v>-0.153989753987905</v>
       </c>
       <c r="X75" t="n">
-        <v>1.17857142857143</v>
+        <v>0.793269230769231</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.735714285714286</v>
+        <v>0.730496453900709</v>
       </c>
       <c r="Z75" t="s">
         <v>205</v>
@@ -23935,10 +23935,10 @@
         <v>-4.75948066248103</v>
       </c>
       <c r="X76" t="n">
-        <v>0.321428571428571</v>
+        <v>0.216346153846154</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0709219858156028</v>
       </c>
       <c r="Z76" t="s">
         <v>207</v>
@@ -24027,10 +24027,10 @@
         <v>0.856302602071188</v>
       </c>
       <c r="X77" t="n">
-        <v>0.221428571428571</v>
+        <v>0.149038461538462</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.314285714285714</v>
+        <v>0.312056737588652</v>
       </c>
       <c r="Z77" t="s">
         <v>209</v>
@@ -24119,10 +24119,10 @@
         <v>-0.58457613448573</v>
       </c>
       <c r="X78" t="n">
-        <v>0.207142857142857</v>
+        <v>0.139423076923077</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.0857142857142857</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="Z78" t="s">
         <v>211</v>
@@ -24211,10 +24211,10 @@
         <v>0.80010956011095</v>
       </c>
       <c r="X79" t="n">
-        <v>0.8</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.614285714285714</v>
+        <v>0.609929078014184</v>
       </c>
       <c r="Z79" t="s">
         <v>213</v>
@@ -24303,10 +24303,10 @@
         <v>0.197286419348842</v>
       </c>
       <c r="X80" t="n">
-        <v>1.25</v>
+        <v>0.841346153846154</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.935714285714286</v>
+        <v>0.929078014184397</v>
       </c>
       <c r="Z80" t="s">
         <v>217</v>
@@ -24395,10 +24395,10 @@
         <v>-0.573894182512089</v>
       </c>
       <c r="X81" t="n">
-        <v>1.09285714285714</v>
+        <v>0.735576923076923</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.65</v>
+        <v>0.645390070921986</v>
       </c>
       <c r="Z81" t="s">
         <v>219</v>
@@ -24487,10 +24487,10 @@
         <v>0.501287413331186</v>
       </c>
       <c r="X82" t="n">
-        <v>0.764285714285714</v>
+        <v>0.514423076923077</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.607142857142857</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z82" t="s">
         <v>221</v>
@@ -24579,10 +24579,10 @@
         <v>0.75291517793626</v>
       </c>
       <c r="X83" t="n">
-        <v>0.135714285714286</v>
+        <v>0.0913461538461538</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.185714285714286</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z83" t="s">
         <v>378</v>
@@ -24671,10 +24671,10 @@
         <v>0.710193930707018</v>
       </c>
       <c r="X84" t="n">
-        <v>0.214285714285714</v>
+        <v>0.144230769230769</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.35</v>
+        <v>0.347517730496454</v>
       </c>
       <c r="Z84" t="s">
         <v>225</v>
@@ -24763,10 +24763,10 @@
         <v>0.221918947322162</v>
       </c>
       <c r="X85" t="n">
-        <v>1.41428571428571</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.964285714285714</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="Z85" t="s">
         <v>227</v>
@@ -24855,10 +24855,10 @@
         <v>0.0538728862064532</v>
       </c>
       <c r="X86" t="n">
-        <v>1.09285714285714</v>
+        <v>0.735576923076923</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.75</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="Z86" t="s">
         <v>229</v>
@@ -24947,10 +24947,10 @@
         <v>-1.22544005293121</v>
       </c>
       <c r="X87" t="n">
-        <v>0.9</v>
+        <v>0.605769230769231</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.628571428571429</v>
+        <v>0.624113475177305</v>
       </c>
       <c r="Z87" t="s">
         <v>231</v>
@@ -25039,10 +25039,10 @@
         <v>-0.146796281557211</v>
       </c>
       <c r="X88" t="n">
-        <v>0.928571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.692857142857143</v>
+        <v>0.687943262411348</v>
       </c>
       <c r="Z88" t="s">
         <v>233</v>
@@ -25131,10 +25131,10 @@
         <v>-0.247878231136285</v>
       </c>
       <c r="X89" t="n">
-        <v>0.8</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.514285714285714</v>
+        <v>0.51063829787234</v>
       </c>
       <c r="Z89" t="s">
         <v>235</v>
@@ -25223,10 +25223,10 @@
         <v>1.13445905255636</v>
       </c>
       <c r="X90" t="n">
-        <v>0.164285714285714</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.221428571428571</v>
+        <v>0.219858156028369</v>
       </c>
       <c r="Z90" t="s">
         <v>239</v>
@@ -25315,10 +25315,10 @@
         <v>-0.123321239344272</v>
       </c>
       <c r="X91" t="n">
-        <v>1.25714285714286</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.778571428571429</v>
+        <v>0.773049645390071</v>
       </c>
       <c r="Z91" t="s">
         <v>241</v>
@@ -25407,10 +25407,10 @@
         <v>-0.889047540985413</v>
       </c>
       <c r="X92" t="n">
-        <v>0.971428571428571</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.514285714285714</v>
+        <v>0.51063829787234</v>
       </c>
       <c r="Z92" t="s">
         <v>243</v>
@@ -25499,10 +25499,10 @@
         <v>-1.23647872920826</v>
       </c>
       <c r="X93" t="n">
-        <v>0.171428571428571</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0709219858156028</v>
       </c>
       <c r="Z93" t="s">
         <v>247</v>
@@ -25591,10 +25591,10 @@
         <v>0.436756626624003</v>
       </c>
       <c r="X94" t="n">
-        <v>0.75</v>
+        <v>0.504807692307692</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.621428571428571</v>
+        <v>0.617021276595745</v>
       </c>
       <c r="Z94" t="s">
         <v>249</v>
@@ -25683,10 +25683,10 @@
         <v>-0.264602112981421</v>
       </c>
       <c r="X95" t="n">
-        <v>0.164285714285714</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.128571428571429</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="Z95" t="s">
         <v>251</v>
@@ -25775,10 +25775,10 @@
         <v>1.37750226767213</v>
       </c>
       <c r="X96" t="n">
-        <v>0.157142857142857</v>
+        <v>0.105769230769231</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.128571428571429</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="Z96" t="s">
         <v>253</v>
@@ -25867,10 +25867,10 @@
         <v>0.328047230583471</v>
       </c>
       <c r="X97" t="n">
-        <v>0.242857142857143</v>
+        <v>0.163461538461538</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.264285714285714</v>
+        <v>0.26241134751773</v>
       </c>
       <c r="Z97" t="s">
         <v>380</v>
@@ -25959,10 +25959,10 @@
         <v>0.81560027902757</v>
       </c>
       <c r="X98" t="n">
-        <v>0.128571428571429</v>
+        <v>0.0865384615384615</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.178571428571429</v>
+        <v>0.177304964539007</v>
       </c>
       <c r="Z98" t="s">
         <v>382</v>
@@ -26051,10 +26051,10 @@
         <v>0.0730933401595609</v>
       </c>
       <c r="X99" t="n">
-        <v>0.685714285714286</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.457142857142857</v>
+        <v>0.453900709219858</v>
       </c>
       <c r="Z99" t="s">
         <v>255</v>
@@ -26143,10 +26143,10 @@
         <v>0.482435271433499</v>
       </c>
       <c r="X100" t="n">
-        <v>0.15</v>
+        <v>0.100961538461538</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.121428571428571</v>
+        <v>0.120567375886525</v>
       </c>
       <c r="Z100" t="s">
         <v>257</v>
@@ -26235,10 +26235,10 @@
         <v>0.285585969405274</v>
       </c>
       <c r="X101" t="n">
-        <v>0.542857142857143</v>
+        <v>0.365384615384615</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.407142857142857</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="Z101" t="s">
         <v>259</v>
@@ -26327,10 +26327,10 @@
         <v>-0.387116809063076</v>
       </c>
       <c r="X102" t="n">
-        <v>0.6</v>
+        <v>0.403846153846154</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.414285714285714</v>
+        <v>0.411347517730496</v>
       </c>
       <c r="Z102" t="s">
         <v>261</v>
@@ -26419,10 +26419,10 @@
         <v>-1.03677236949184</v>
       </c>
       <c r="X103" t="n">
-        <v>0.364285714285714</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.364285714285714</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="Z103" t="s">
         <v>263</v>
@@ -26511,10 +26511,10 @@
         <v>0.292016644714273</v>
       </c>
       <c r="X104" t="n">
-        <v>0.264285714285714</v>
+        <v>0.177884615384615</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.214285714285714</v>
+        <v>0.212765957446809</v>
       </c>
       <c r="Z104" t="s">
         <v>267</v>
@@ -26603,10 +26603,10 @@
         <v>-0.386040900800865</v>
       </c>
       <c r="X105" t="n">
-        <v>0.707142857142857</v>
+        <v>0.475961538461538</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.335714285714286</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z105" t="s">
         <v>269</v>
@@ -26695,10 +26695,10 @@
         <v>0.248406765953578</v>
       </c>
       <c r="X106" t="n">
-        <v>0.821428571428571</v>
+        <v>0.552884615384615</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.614285714285714</v>
+        <v>0.609929078014184</v>
       </c>
       <c r="Z106" t="s">
         <v>271</v>
@@ -26787,10 +26787,10 @@
         <v>0.11509690033442</v>
       </c>
       <c r="X107" t="n">
-        <v>0.578571428571429</v>
+        <v>0.389423076923077</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.357142857142857</v>
+        <v>0.354609929078014</v>
       </c>
       <c r="Z107" t="s">
         <v>273</v>
@@ -26879,10 +26879,10 @@
         <v>0.604386123088478</v>
       </c>
       <c r="X108" t="n">
-        <v>1.00714285714286</v>
+        <v>0.677884615384615</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.678571428571429</v>
+        <v>0.673758865248227</v>
       </c>
       <c r="Z108" t="s">
         <v>277</v>
@@ -26971,10 +26971,10 @@
         <v>0.470433055208897</v>
       </c>
       <c r="X109" t="n">
-        <v>0.378571428571429</v>
+        <v>0.254807692307692</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.185714285714286</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z109" t="s">
         <v>279</v>
@@ -27063,10 +27063,10 @@
         <v>0.0447290319879075</v>
       </c>
       <c r="X110" t="n">
-        <v>0.25</v>
+        <v>0.168269230769231</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.242857142857143</v>
+        <v>0.24113475177305</v>
       </c>
       <c r="Z110" t="s">
         <v>281</v>
@@ -27155,10 +27155,10 @@
         <v>0.574150449543885</v>
       </c>
       <c r="X111" t="n">
-        <v>0.564285714285714</v>
+        <v>0.379807692307692</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.364285714285714</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="Z111" t="s">
         <v>283</v>
@@ -27247,10 +27247,10 @@
         <v>-0.681269230316691</v>
       </c>
       <c r="X112" t="n">
-        <v>0.164285714285714</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.1</v>
+        <v>0.099290780141844</v>
       </c>
       <c r="Z112" t="s">
         <v>285</v>
@@ -27339,10 +27339,10 @@
         <v>0.424952697002181</v>
       </c>
       <c r="X113" t="n">
-        <v>0.214285714285714</v>
+        <v>0.144230769230769</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.142857142857143</v>
+        <v>0.141843971631206</v>
       </c>
       <c r="Z113" t="s">
         <v>287</v>
@@ -27431,10 +27431,10 @@
         <v>-0.572791786511948</v>
       </c>
       <c r="X114" t="n">
-        <v>0.457142857142857</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.3</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="Z114" t="s">
         <v>291</v>
@@ -27523,10 +27523,10 @@
         <v>-0.750112120365703</v>
       </c>
       <c r="X115" t="n">
-        <v>0.25</v>
+        <v>0.168269230769231</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.0571428571428571</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z115" t="s">
         <v>295</v>
@@ -27615,10 +27615,10 @@
         <v>0.328482206675398</v>
       </c>
       <c r="X116" t="n">
-        <v>0.271428571428571</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.114285714285714</v>
+        <v>0.113475177304965</v>
       </c>
       <c r="Z116" t="s">
         <v>297</v>
@@ -27707,10 +27707,10 @@
         <v>0.425550124838112</v>
       </c>
       <c r="X117" t="n">
-        <v>0.185714285714286</v>
+        <v>0.125</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.185714285714286</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z117" t="s">
         <v>299</v>
@@ -27799,10 +27799,10 @@
         <v>-0.600697985427633</v>
       </c>
       <c r="X118" t="n">
-        <v>0.692857142857143</v>
+        <v>0.466346153846154</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.285714285714286</v>
+        <v>0.283687943262411</v>
       </c>
       <c r="Z118" t="s">
         <v>305</v>
@@ -27891,10 +27891,10 @@
         <v>-2.40391447958817</v>
       </c>
       <c r="X119" t="n">
-        <v>0.307142857142857</v>
+        <v>0.206730769230769</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.0428571428571429</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="Z119" t="s">
         <v>307</v>
@@ -27983,10 +27983,10 @@
         <v>-2.18623244450441</v>
       </c>
       <c r="X120" t="n">
-        <v>0.507142857142857</v>
+        <v>0.341346153846154</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.171428571428571</v>
+        <v>0.170212765957447</v>
       </c>
       <c r="Z120" t="s">
         <v>313</v>
@@ -28075,10 +28075,10 @@
         <v>-0.166748843535011</v>
       </c>
       <c r="X121" t="n">
-        <v>1.35</v>
+        <v>0.908653846153846</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.964285714285714</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="Z121" t="s">
         <v>315</v>
@@ -28167,10 +28167,10 @@
         <v>0.977581701136025</v>
       </c>
       <c r="X122" t="n">
-        <v>0.271428571428571</v>
+        <v>0.182692307692308</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.364285714285714</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="Z122" t="s">
         <v>317</v>
@@ -28259,10 +28259,10 @@
         <v>-0.357001244699385</v>
       </c>
       <c r="X123" t="n">
-        <v>0.885714285714286</v>
+        <v>0.596153846153846</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.521428571428571</v>
+        <v>0.517730496453901</v>
       </c>
       <c r="Z123" t="s">
         <v>319</v>
@@ -28351,10 +28351,10 @@
         <v>-0.845089694318797</v>
       </c>
       <c r="X124" t="n">
-        <v>0.392857142857143</v>
+        <v>0.264423076923077</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.378571428571429</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="Z124" t="s">
         <v>321</v>
@@ -28443,10 +28443,10 @@
         <v>0.566089192415774</v>
       </c>
       <c r="X125" t="n">
-        <v>0.364285714285714</v>
+        <v>0.245192307692308</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.164285714285714</v>
+        <v>0.163120567375887</v>
       </c>
       <c r="Z125" t="s">
         <v>323</v>
@@ -28535,10 +28535,10 @@
         <v>-0.285473596504779</v>
       </c>
       <c r="X126" t="n">
-        <v>0.292857142857143</v>
+        <v>0.197115384615385</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.228571428571429</v>
+        <v>0.226950354609929</v>
       </c>
       <c r="Z126" t="s">
         <v>327</v>
@@ -28627,10 +28627,10 @@
         <v>-0.23333691552</v>
       </c>
       <c r="X127" t="n">
-        <v>1.38571428571429</v>
+        <v>0.932692307692308</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.964285714285714</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="Z127" t="s">
         <v>329</v>
@@ -28719,10 +28719,10 @@
         <v>0.337112120194802</v>
       </c>
       <c r="X128" t="n">
-        <v>1.15</v>
+        <v>0.774038461538462</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.835714285714286</v>
+        <v>0.829787234042553</v>
       </c>
       <c r="Z128" t="s">
         <v>331</v>
@@ -28811,10 +28811,10 @@
         <v>-0.481635317348529</v>
       </c>
       <c r="X129" t="n">
-        <v>0.971428571428571</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.607142857142857</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z129" t="s">
         <v>333</v>
@@ -28903,10 +28903,10 @@
         <v>-3.13621948793751</v>
       </c>
       <c r="X130" t="n">
-        <v>0.178571428571429</v>
+        <v>0.120192307692308</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.0571428571428571</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z130" t="s">
         <v>335</v>
@@ -28995,10 +28995,10 @@
         <v>-3.46323096427918</v>
       </c>
       <c r="X131" t="n">
-        <v>0.421428571428571</v>
+        <v>0.283653846153846</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.107142857142857</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z131" t="s">
         <v>339</v>
@@ -29087,10 +29087,10 @@
         <v>1.14565716320893</v>
       </c>
       <c r="X132" t="n">
-        <v>0.2</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.3</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="Z132" t="s">
         <v>341</v>
@@ -29179,10 +29179,10 @@
         <v>-0.30050058856374</v>
       </c>
       <c r="X133" t="n">
-        <v>0.221428571428571</v>
+        <v>0.149038461538462</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.164285714285714</v>
+        <v>0.163120567375887</v>
       </c>
       <c r="Z133" t="s">
         <v>343</v>
@@ -29271,10 +29271,10 @@
         <v>0.29087340992764</v>
       </c>
       <c r="X134" t="n">
-        <v>0.714285714285714</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.442857142857143</v>
+        <v>0.439716312056738</v>
       </c>
       <c r="Z134" t="s">
         <v>345</v>
@@ -29363,10 +29363,10 @@
         <v>2.6600528454752</v>
       </c>
       <c r="X135" t="n">
-        <v>0.114285714285714</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.114285714285714</v>
+        <v>0.113475177304965</v>
       </c>
       <c r="Z135" t="s">
         <v>347</v>
@@ -29455,10 +29455,10 @@
         <v>0.166751181239664</v>
       </c>
       <c r="X136" t="n">
-        <v>0.964285714285714</v>
+        <v>0.649038461538462</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.592857142857143</v>
+        <v>0.588652482269504</v>
       </c>
       <c r="Z136" t="s">
         <v>349</v>
@@ -29547,10 +29547,10 @@
         <v>-0.15664806273253</v>
       </c>
       <c r="X137" t="n">
-        <v>0.921428571428571</v>
+        <v>0.620192307692308</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.635714285714286</v>
+        <v>0.631205673758865</v>
       </c>
       <c r="Z137" t="s">
         <v>351</v>
@@ -29639,10 +29639,10 @@
         <v>-0.731343992101777</v>
       </c>
       <c r="X138" t="n">
-        <v>0.65</v>
+        <v>0.4375</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.535714285714286</v>
+        <v>0.531914893617021</v>
       </c>
       <c r="Z138" t="s">
         <v>353</v>
@@ -29731,10 +29731,10 @@
         <v>1.71099864661802</v>
       </c>
       <c r="X139" t="n">
-        <v>0.228571428571429</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.185714285714286</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z139" t="s">
         <v>359</v>
@@ -29823,10 +29823,10 @@
         <v>-1.45895828411789</v>
       </c>
       <c r="X140" t="n">
-        <v>1.31428571428571</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.828571428571429</v>
+        <v>0.822695035460993</v>
       </c>
       <c r="Z140" t="s">
         <v>361</v>
@@ -29915,10 +29915,10 @@
         <v>-2.80818909122559</v>
       </c>
       <c r="X141" t="n">
-        <v>0.171428571428571</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0642857142857143</v>
+        <v>0.0638297872340425</v>
       </c>
       <c r="Z141" t="s">
         <v>363</v>
@@ -30113,10 +30113,10 @@
         <v>1.55485464288049</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.274390243902439</v>
+        <v>0.319148936170213</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -30205,10 +30205,10 @@
         <v>-2.44584499715251</v>
       </c>
       <c r="X3" t="n">
-        <v>0.146341463414634</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.164634146341463</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -30297,10 +30297,10 @@
         <v>-4.13243633953331</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0548780487804878</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -30389,10 +30389,10 @@
         <v>-0.412149815358632</v>
       </c>
       <c r="X5" t="n">
-        <v>0.335365853658537</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.420731707317073</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -30481,10 +30481,10 @@
         <v>-0.272185595875391</v>
       </c>
       <c r="X6" t="n">
-        <v>0.280487804878049</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5</v>
+        <v>0.581560283687943</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -30573,10 +30573,10 @@
         <v>2.85414437084048</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0548780487804878</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.201219512195122</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -30665,10 +30665,10 @@
         <v>-0.54276830088599</v>
       </c>
       <c r="X8" t="n">
-        <v>0.390243902439024</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.640243902439024</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -30757,10 +30757,10 @@
         <v>-0.333540784989035</v>
       </c>
       <c r="X9" t="n">
-        <v>0.115853658536585</v>
+        <v>0.287878787878788</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.115853658536585</v>
+        <v>0.134751773049645</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -30849,10 +30849,10 @@
         <v>-0.674409292919808</v>
       </c>
       <c r="X10" t="n">
-        <v>0.189024390243902</v>
+        <v>0.46969696969697</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.25609756097561</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -30941,10 +30941,10 @@
         <v>-0.981197698332144</v>
       </c>
       <c r="X11" t="n">
-        <v>0.304878048780488</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.359756097560976</v>
+        <v>0.418439716312057</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -31033,10 +31033,10 @@
         <v>0.899909019901305</v>
       </c>
       <c r="X12" t="n">
-        <v>0.158536585365854</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.23780487804878</v>
+        <v>0.276595744680851</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -31125,10 +31125,10 @@
         <v>0.246697209292258</v>
       </c>
       <c r="X13" t="n">
-        <v>0.310975609756098</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.524390243902439</v>
+        <v>0.609929078014184</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -31217,10 +31217,10 @@
         <v>2.89891583619132</v>
       </c>
       <c r="X14" t="n">
-        <v>0.201219512195122</v>
+        <v>0.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.548780487804878</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -31309,10 +31309,10 @@
         <v>-0.93468704065794</v>
       </c>
       <c r="X15" t="n">
-        <v>0.390243902439024</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.786585365853659</v>
+        <v>0.914893617021277</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -31401,10 +31401,10 @@
         <v>1.80550494363391</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0731707317073171</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0182926829268293</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -31493,10 +31493,10 @@
         <v>0.483035632461347</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.353658536585366</v>
+        <v>0.411347517730496</v>
       </c>
       <c r="Z17" t="s">
         <v>63</v>
@@ -31585,10 +31585,10 @@
         <v>-3.02877290830243</v>
       </c>
       <c r="X18" t="n">
-        <v>0.24390243902439</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.201219512195122</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="Z18" t="s">
         <v>65</v>
@@ -31677,10 +31677,10 @@
         <v>-0.933353051902015</v>
       </c>
       <c r="X19" t="n">
-        <v>0.353658536585366</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.609756097560976</v>
+        <v>0.709219858156028</v>
       </c>
       <c r="Z19" t="s">
         <v>67</v>
@@ -31769,10 +31769,10 @@
         <v>0.226965609919502</v>
       </c>
       <c r="X20" t="n">
-        <v>0.231707317073171</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.359756097560976</v>
+        <v>0.418439716312057</v>
       </c>
       <c r="Z20" t="s">
         <v>69</v>
@@ -31861,10 +31861,10 @@
         <v>-0.639053213375571</v>
       </c>
       <c r="X21" t="n">
-        <v>0.396341463414634</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.615853658536585</v>
+        <v>0.716312056737589</v>
       </c>
       <c r="Z21" t="s">
         <v>71</v>
@@ -31953,10 +31953,10 @@
         <v>-4.37094053921215</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0426829268292683</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z22" t="s">
         <v>75</v>
@@ -32045,10 +32045,10 @@
         <v>-0.625690901557575</v>
       </c>
       <c r="X23" t="n">
-        <v>0.109756097560976</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.0921985815602837</v>
       </c>
       <c r="Z23" t="s">
         <v>77</v>
@@ -32137,10 +32137,10 @@
         <v>-2.52276554823976</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0548780487804878</v>
+        <v>0.0638297872340425</v>
       </c>
       <c r="Z24" t="s">
         <v>79</v>
@@ -32229,10 +32229,10 @@
         <v>-4.52075876743837</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0548780487804878</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.024390243902439</v>
+        <v>0.0283687943262411</v>
       </c>
       <c r="Z25" t="s">
         <v>81</v>
@@ -32321,10 +32321,10 @@
         <v>-0.700311619347568</v>
       </c>
       <c r="X26" t="n">
-        <v>0.390243902439024</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.76219512195122</v>
+        <v>0.886524822695035</v>
       </c>
       <c r="Z26" t="s">
         <v>83</v>
@@ -32413,10 +32413,10 @@
         <v>-1.65866122800492</v>
       </c>
       <c r="X27" t="n">
-        <v>0.195121951219512</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.195121951219512</v>
+        <v>0.226950354609929</v>
       </c>
       <c r="Z27" t="s">
         <v>85</v>
@@ -32505,7 +32505,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -32597,10 +32597,10 @@
         <v>0.190308742772455</v>
       </c>
       <c r="X29" t="n">
-        <v>0.402439024390244</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.76219512195122</v>
+        <v>0.886524822695035</v>
       </c>
       <c r="Z29" t="s">
         <v>89</v>
@@ -32689,10 +32689,10 @@
         <v>-1.14160934164248</v>
       </c>
       <c r="X30" t="n">
-        <v>0.298780487804878</v>
+        <v>0.742424242424242</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.353658536585366</v>
+        <v>0.411347517730496</v>
       </c>
       <c r="Z30" t="s">
         <v>91</v>
@@ -32781,10 +32781,10 @@
         <v>0.203123030083704</v>
       </c>
       <c r="X31" t="n">
-        <v>0.304878048780488</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.658536585365854</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="Z31" t="s">
         <v>93</v>
@@ -32873,10 +32873,10 @@
         <v>-0.0210991120707092</v>
       </c>
       <c r="X32" t="n">
-        <v>0.335365853658537</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.323170731707317</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="Z32" t="s">
         <v>95</v>
@@ -32965,10 +32965,10 @@
         <v>0.509353925349377</v>
       </c>
       <c r="X33" t="n">
-        <v>0.402439024390244</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.835365853658537</v>
+        <v>0.971631205673759</v>
       </c>
       <c r="Z33" t="s">
         <v>97</v>
@@ -33057,10 +33057,10 @@
         <v>-0.50622052041542</v>
       </c>
       <c r="X34" t="n">
-        <v>0.384146341463415</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.74390243902439</v>
+        <v>0.865248226950355</v>
       </c>
       <c r="Z34" t="s">
         <v>101</v>
@@ -33149,10 +33149,10 @@
         <v>-0.553085233433025</v>
       </c>
       <c r="X35" t="n">
-        <v>0.286585365853659</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.207317073170732</v>
+        <v>0.24113475177305</v>
       </c>
       <c r="Z35" t="s">
         <v>103</v>
@@ -33241,10 +33241,10 @@
         <v>0.912638090604748</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0731707317073171</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.0921985815602837</v>
       </c>
       <c r="Z36" t="s">
         <v>105</v>
@@ -33333,10 +33333,10 @@
         <v>0.0697748361836856</v>
       </c>
       <c r="X37" t="n">
-        <v>0.323170731707317</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.49390243902439</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="Z37" t="s">
         <v>107</v>
@@ -33425,10 +33425,10 @@
         <v>-2.08062086399458</v>
       </c>
       <c r="X38" t="n">
-        <v>0.170731707317073</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.176829268292683</v>
+        <v>0.205673758865248</v>
       </c>
       <c r="Z38" t="s">
         <v>109</v>
@@ -33517,10 +33517,10 @@
         <v>-2.05296013783847</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0670731707317073</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0182926829268293</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="Z39" t="s">
         <v>111</v>
@@ -33609,10 +33609,10 @@
         <v>-1.46087295290711</v>
       </c>
       <c r="X40" t="n">
-        <v>0.371951219512195</v>
+        <v>0.924242424242424</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.426829268292683</v>
+        <v>0.49645390070922</v>
       </c>
       <c r="Z40" t="s">
         <v>113</v>
@@ -33701,10 +33701,10 @@
         <v>-1.34247665338657</v>
       </c>
       <c r="X41" t="n">
-        <v>0.317073170731707</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.298780487804878</v>
+        <v>0.347517730496454</v>
       </c>
       <c r="Z41" t="s">
         <v>115</v>
@@ -33793,10 +33793,10 @@
         <v>-0.120577202047457</v>
       </c>
       <c r="X42" t="n">
-        <v>0.23780487804878</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.134146341463415</v>
+        <v>0.156028368794326</v>
       </c>
       <c r="Z42" t="s">
         <v>117</v>
@@ -33885,10 +33885,10 @@
         <v>-1.17929119973041</v>
       </c>
       <c r="X43" t="n">
-        <v>0.182926829268293</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.445121951219512</v>
+        <v>0.517730496453901</v>
       </c>
       <c r="Z43" t="s">
         <v>119</v>
@@ -33977,10 +33977,10 @@
         <v>-2.2045589175023</v>
       </c>
       <c r="X44" t="n">
-        <v>0.396341463414634</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.548780487804878</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="Z44" t="s">
         <v>121</v>
@@ -34069,10 +34069,10 @@
         <v>-0.462537499211996</v>
       </c>
       <c r="X45" t="n">
-        <v>0.347560975609756</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.51219512195122</v>
+        <v>0.595744680851064</v>
       </c>
       <c r="Z45" t="s">
         <v>123</v>
@@ -34161,10 +34161,10 @@
         <v>0.889643817685381</v>
       </c>
       <c r="X46" t="n">
-        <v>0.201219512195122</v>
+        <v>0.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.176829268292683</v>
+        <v>0.205673758865248</v>
       </c>
       <c r="Z46" t="s">
         <v>125</v>
@@ -34253,10 +34253,10 @@
         <v>-1.2534873154677</v>
       </c>
       <c r="X47" t="n">
-        <v>0.390243902439024</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.664634146341463</v>
+        <v>0.773049645390071</v>
       </c>
       <c r="Z47" t="s">
         <v>127</v>
@@ -34345,10 +34345,10 @@
         <v>5.42707171410237</v>
       </c>
       <c r="X48" t="n">
-        <v>0.00609756097560976</v>
+        <v>0.0151515151515152</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.152439024390244</v>
+        <v>0.177304964539007</v>
       </c>
       <c r="Z48" t="s">
         <v>374</v>
@@ -34437,10 +34437,10 @@
         <v>-0.279799518722072</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z49" t="s">
         <v>129</v>
@@ -34529,10 +34529,10 @@
         <v>-0.169542111924123</v>
       </c>
       <c r="X50" t="n">
-        <v>0.140243902439024</v>
+        <v>0.348484848484849</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.103658536585366</v>
+        <v>0.120567375886525</v>
       </c>
       <c r="Z50" t="s">
         <v>131</v>
@@ -34621,10 +34621,10 @@
         <v>1.32126994002473</v>
       </c>
       <c r="X51" t="n">
-        <v>0.146341463414634</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.426829268292683</v>
+        <v>0.49645390070922</v>
       </c>
       <c r="Z51" t="s">
         <v>133</v>
@@ -34713,10 +34713,10 @@
         <v>-1.02840343195395</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z52" t="s">
         <v>135</v>
@@ -34805,10 +34805,10 @@
         <v>0.155252366782451</v>
       </c>
       <c r="X53" t="n">
-        <v>0.396341463414634</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.786585365853659</v>
+        <v>0.914893617021277</v>
       </c>
       <c r="Z53" t="s">
         <v>137</v>
@@ -34897,10 +34897,10 @@
         <v>-1.74918881663885</v>
       </c>
       <c r="X54" t="n">
-        <v>0.109756097560976</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.158536585365854</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z54" t="s">
         <v>139</v>
@@ -34989,10 +34989,10 @@
         <v>-0.38274332135373</v>
       </c>
       <c r="X55" t="n">
-        <v>0.140243902439024</v>
+        <v>0.348484848484849</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.457317073170732</v>
+        <v>0.531914893617021</v>
       </c>
       <c r="Z55" t="s">
         <v>141</v>
@@ -35081,10 +35081,10 @@
         <v>2.29687138846251</v>
       </c>
       <c r="X56" t="n">
-        <v>0.134146341463415</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.390243902439024</v>
+        <v>0.453900709219858</v>
       </c>
       <c r="Z56" t="s">
         <v>143</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.457317073170732</v>
+        <v>0.531914893617021</v>
       </c>
       <c r="Z57" t="s">
         <v>145</v>
@@ -35265,10 +35265,10 @@
         <v>-0.239824302771768</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z58" t="s">
         <v>147</v>
@@ -35357,10 +35357,10 @@
         <v>-0.166340465376662</v>
       </c>
       <c r="X59" t="n">
-        <v>0.268292682926829</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.518292682926829</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z59" t="s">
         <v>149</v>
@@ -35449,10 +35449,10 @@
         <v>-2.29922313805921</v>
       </c>
       <c r="X60" t="n">
-        <v>0.347560975609756</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.573170731707317</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z60" t="s">
         <v>151</v>
@@ -35541,10 +35541,10 @@
         <v>2.79600060571162</v>
       </c>
       <c r="X61" t="n">
-        <v>0.280487804878049</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.719512195121951</v>
+        <v>0.836879432624113</v>
       </c>
       <c r="Z61" t="s">
         <v>153</v>
@@ -35633,10 +35633,10 @@
         <v>-5.97179566066315</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0121951219512195</v>
+        <v>0.0141843971631206</v>
       </c>
       <c r="Z62" t="s">
         <v>155</v>
@@ -35725,10 +35725,10 @@
         <v>-0.109127956342737</v>
       </c>
       <c r="X63" t="n">
-        <v>0.146341463414634</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.140243902439024</v>
+        <v>0.163120567375887</v>
       </c>
       <c r="Z63" t="s">
         <v>157</v>
@@ -35817,10 +35817,10 @@
         <v>0.51905040271375</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0670731707317073</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.146341463414634</v>
+        <v>0.170212765957447</v>
       </c>
       <c r="Z64" t="s">
         <v>159</v>
@@ -35909,10 +35909,10 @@
         <v>-5.87582502054258</v>
       </c>
       <c r="X65" t="n">
-        <v>0.134146341463415</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0670731707317073</v>
+        <v>0.0780141843971631</v>
       </c>
       <c r="Z65" t="s">
         <v>161</v>
@@ -36001,10 +36001,10 @@
         <v>-0.445699479361857</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0121951219512195</v>
+        <v>0.0141843971631206</v>
       </c>
       <c r="Z66" t="s">
         <v>163</v>
@@ -36093,10 +36093,10 @@
         <v>-1.50918266881183</v>
       </c>
       <c r="X67" t="n">
-        <v>0.182926829268293</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.164634146341463</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="Z67" t="s">
         <v>165</v>
@@ -36185,10 +36185,10 @@
         <v>4.61600661126884</v>
       </c>
       <c r="X68" t="n">
-        <v>0.024390243902439</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.408536585365854</v>
+        <v>0.475177304964539</v>
       </c>
       <c r="Z68" t="s">
         <v>167</v>
@@ -36277,10 +36277,10 @@
         <v>-4.00638454088822</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0426829268292683</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="Z69" t="s">
         <v>169</v>
@@ -36369,10 +36369,10 @@
         <v>-1.02767145319086</v>
       </c>
       <c r="X70" t="n">
-        <v>0.402439024390244</v>
+        <v>1</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.829268292682927</v>
+        <v>0.964539007092199</v>
       </c>
       <c r="Z70" t="s">
         <v>171</v>
@@ -36461,10 +36461,10 @@
         <v>-1.62915169686646</v>
       </c>
       <c r="X71" t="n">
-        <v>0.310975609756098</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.201219512195122</v>
+        <v>0.234042553191489</v>
       </c>
       <c r="Z71" t="s">
         <v>173</v>
@@ -36553,10 +36553,10 @@
         <v>-0.7098312381372</v>
       </c>
       <c r="X72" t="n">
-        <v>0.347560975609756</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.518292682926829</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z72" t="s">
         <v>175</v>
@@ -36645,10 +36645,10 @@
         <v>-2.1424281663321</v>
       </c>
       <c r="X73" t="n">
-        <v>0.195121951219512</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z73" t="s">
         <v>177</v>
@@ -36737,10 +36737,10 @@
         <v>-1.00588598951923</v>
       </c>
       <c r="X74" t="n">
-        <v>0.207317073170732</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.195121951219512</v>
+        <v>0.226950354609929</v>
       </c>
       <c r="Z74" t="s">
         <v>179</v>
@@ -36829,10 +36829,10 @@
         <v>-0.974633809309408</v>
       </c>
       <c r="X75" t="n">
-        <v>0.365853658536585</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.390243902439024</v>
+        <v>0.453900709219858</v>
       </c>
       <c r="Z75" t="s">
         <v>181</v>
@@ -36921,10 +36921,10 @@
         <v>-0.851985867810486</v>
       </c>
       <c r="X76" t="n">
-        <v>0.384146341463415</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.792682926829268</v>
+        <v>0.921985815602837</v>
       </c>
       <c r="Z76" t="s">
         <v>183</v>
@@ -37013,10 +37013,10 @@
         <v>2.49464734653222</v>
       </c>
       <c r="X77" t="n">
-        <v>0.024390243902439</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z77" t="s">
         <v>376</v>
@@ -37105,10 +37105,10 @@
         <v>-0.894616166293041</v>
       </c>
       <c r="X78" t="n">
-        <v>0.329268292682927</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.396341463414634</v>
+        <v>0.460992907801418</v>
       </c>
       <c r="Z78" t="s">
         <v>185</v>
@@ -37197,10 +37197,10 @@
         <v>-1.37297151080344</v>
       </c>
       <c r="X79" t="n">
-        <v>0.286585365853659</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.23780487804878</v>
+        <v>0.276595744680851</v>
       </c>
       <c r="Z79" t="s">
         <v>187</v>
@@ -37289,10 +37289,10 @@
         <v>-0.0500238566135406</v>
       </c>
       <c r="X80" t="n">
-        <v>0.347560975609756</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.689024390243902</v>
+        <v>0.801418439716312</v>
       </c>
       <c r="Z80" t="s">
         <v>189</v>
@@ -37381,10 +37381,10 @@
         <v>1.64616133379497</v>
       </c>
       <c r="X81" t="n">
-        <v>0.146341463414634</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.164634146341463</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="Z81" t="s">
         <v>191</v>
@@ -37473,10 +37473,10 @@
         <v>-2.17556808472229</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.0304878048780488</v>
+        <v>0.0354609929078014</v>
       </c>
       <c r="Z82" t="s">
         <v>193</v>
@@ -37565,10 +37565,10 @@
         <v>-0.0998297110937574</v>
       </c>
       <c r="X83" t="n">
-        <v>0.378048780487805</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.695121951219512</v>
+        <v>0.808510638297872</v>
       </c>
       <c r="Z83" t="s">
         <v>195</v>
@@ -37657,10 +37657,10 @@
         <v>-0.333774540304576</v>
       </c>
       <c r="X84" t="n">
-        <v>0.134146341463415</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.347560975609756</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="Z84" t="s">
         <v>197</v>
@@ -37749,10 +37749,10 @@
         <v>-0.847902742323906</v>
       </c>
       <c r="X85" t="n">
-        <v>0.24390243902439</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.158536585365854</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z85" t="s">
         <v>199</v>
@@ -37841,10 +37841,10 @@
         <v>-0.399226846869004</v>
       </c>
       <c r="X86" t="n">
-        <v>0.347560975609756</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.414634146341463</v>
+        <v>0.482269503546099</v>
       </c>
       <c r="Z86" t="s">
         <v>201</v>
@@ -37933,10 +37933,10 @@
         <v>1.06546358830211</v>
       </c>
       <c r="X87" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.292682926829268</v>
+        <v>0.340425531914894</v>
       </c>
       <c r="Z87" t="s">
         <v>203</v>
@@ -38025,10 +38025,10 @@
         <v>2.04461459129392</v>
       </c>
       <c r="X88" t="n">
-        <v>0.201219512195122</v>
+        <v>0.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.628048780487805</v>
+        <v>0.730496453900709</v>
       </c>
       <c r="Z88" t="s">
         <v>205</v>
@@ -38117,10 +38117,10 @@
         <v>-5.07394068208865</v>
       </c>
       <c r="X89" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.0609756097560976</v>
+        <v>0.0709219858156028</v>
       </c>
       <c r="Z89" t="s">
         <v>207</v>
@@ -38209,10 +38209,10 @@
         <v>-1.7326150752473</v>
       </c>
       <c r="X90" t="n">
-        <v>0.207317073170732</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.268292682926829</v>
+        <v>0.312056737588652</v>
       </c>
       <c r="Z90" t="s">
         <v>209</v>
@@ -38301,10 +38301,10 @@
         <v>-0.235510484398386</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0548780487804878</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.0731707317073171</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="Z91" t="s">
         <v>211</v>
@@ -38393,10 +38393,10 @@
         <v>4.15341489775137</v>
       </c>
       <c r="X92" t="n">
-        <v>0.115853658536585</v>
+        <v>0.287878787878788</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.524390243902439</v>
+        <v>0.609929078014184</v>
       </c>
       <c r="Z92" t="s">
         <v>213</v>
@@ -38485,10 +38485,10 @@
         <v>-3.8652868138873</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0609756097560976</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.0121951219512195</v>
+        <v>0.0141843971631206</v>
       </c>
       <c r="Z93" t="s">
         <v>215</v>
@@ -38577,10 +38577,10 @@
         <v>-0.491806231461097</v>
       </c>
       <c r="X94" t="n">
-        <v>0.396341463414634</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.798780487804878</v>
+        <v>0.929078014184397</v>
       </c>
       <c r="Z94" t="s">
         <v>217</v>
@@ -38669,10 +38669,10 @@
         <v>0.746807021580743</v>
       </c>
       <c r="X95" t="n">
-        <v>0.219512195121951</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.554878048780488</v>
+        <v>0.645390070921986</v>
       </c>
       <c r="Z95" t="s">
         <v>219</v>
@@ -38761,10 +38761,10 @@
         <v>-1.37492683921381</v>
       </c>
       <c r="X96" t="n">
-        <v>0.359756097560976</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.518292682926829</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z96" t="s">
         <v>221</v>
@@ -38853,10 +38853,10 @@
         <v>-3.96044465012687</v>
       </c>
       <c r="X97" t="n">
-        <v>0.0731707317073171</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.0426829268292683</v>
+        <v>0.049645390070922</v>
       </c>
       <c r="Z97" t="s">
         <v>223</v>
@@ -38948,7 +38948,7 @@
         <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.158536585365854</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z98" t="s">
         <v>378</v>
@@ -39037,10 +39037,10 @@
         <v>4.00953098233714</v>
       </c>
       <c r="X99" t="n">
-        <v>0.00609756097560976</v>
+        <v>0.0151515151515152</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.298780487804878</v>
+        <v>0.347517730496454</v>
       </c>
       <c r="Z99" t="s">
         <v>225</v>
@@ -39129,10 +39129,10 @@
         <v>-0.841070307069269</v>
       </c>
       <c r="X100" t="n">
-        <v>0.402439024390244</v>
+        <v>1</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.823170731707317</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="Z100" t="s">
         <v>227</v>
@@ -39221,10 +39221,10 @@
         <v>1.37554656688377</v>
       </c>
       <c r="X101" t="n">
-        <v>0.274390243902439</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.640243902439024</v>
+        <v>0.74468085106383</v>
       </c>
       <c r="Z101" t="s">
         <v>229</v>
@@ -39313,10 +39313,10 @@
         <v>0.306490945425552</v>
       </c>
       <c r="X102" t="n">
-        <v>0.323170731707317</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.536585365853659</v>
+        <v>0.624113475177305</v>
       </c>
       <c r="Z102" t="s">
         <v>231</v>
@@ -39405,10 +39405,10 @@
         <v>-0.788428563731191</v>
       </c>
       <c r="X103" t="n">
-        <v>0.347560975609756</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.591463414634146</v>
+        <v>0.687943262411348</v>
       </c>
       <c r="Z103" t="s">
         <v>233</v>
@@ -39497,10 +39497,10 @@
         <v>-0.967403516049945</v>
       </c>
       <c r="X104" t="n">
-        <v>0.323170731707317</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.439024390243902</v>
+        <v>0.51063829787234</v>
       </c>
       <c r="Z104" t="s">
         <v>235</v>
@@ -39589,10 +39589,10 @@
         <v>-1.32171661289939</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.0921985815602837</v>
       </c>
       <c r="Z105" t="s">
         <v>237</v>
@@ -39681,10 +39681,10 @@
         <v>0.769175304589185</v>
       </c>
       <c r="X106" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.189024390243902</v>
+        <v>0.219858156028369</v>
       </c>
       <c r="Z106" t="s">
         <v>239</v>
@@ -39773,10 +39773,10 @@
         <v>0.0885359195659392</v>
       </c>
       <c r="X107" t="n">
-        <v>0.371951219512195</v>
+        <v>0.924242424242424</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.664634146341463</v>
+        <v>0.773049645390071</v>
       </c>
       <c r="Z107" t="s">
         <v>241</v>
@@ -39865,10 +39865,10 @@
         <v>-2.24797272132751</v>
       </c>
       <c r="X108" t="n">
-        <v>0.384146341463415</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.439024390243902</v>
+        <v>0.51063829787234</v>
       </c>
       <c r="Z108" t="s">
         <v>243</v>
@@ -39957,10 +39957,10 @@
         <v>-5.91004453630324</v>
       </c>
       <c r="X109" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.0121951219512195</v>
+        <v>0.0141843971631206</v>
       </c>
       <c r="Z109" t="s">
         <v>245</v>
@@ -40049,10 +40049,10 @@
         <v>-0.38180154327321</v>
       </c>
       <c r="X110" t="n">
-        <v>0.384146341463415</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.530487804878049</v>
+        <v>0.617021276595745</v>
       </c>
       <c r="Z110" t="s">
         <v>249</v>
@@ -40141,10 +40141,10 @@
         <v>-2.85871562185754</v>
       </c>
       <c r="X111" t="n">
-        <v>0.121951219512195</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.109756097560976</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="Z111" t="s">
         <v>253</v>
@@ -40236,7 +40236,7 @@
         <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.225609756097561</v>
+        <v>0.26241134751773</v>
       </c>
       <c r="Z112" t="s">
         <v>380</v>
@@ -40328,7 +40328,7 @@
         <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.152439024390244</v>
+        <v>0.177304964539007</v>
       </c>
       <c r="Z113" t="s">
         <v>382</v>
@@ -40417,10 +40417,10 @@
         <v>-0.311556876679136</v>
       </c>
       <c r="X114" t="n">
-        <v>0.280487804878049</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.390243902439024</v>
+        <v>0.453900709219858</v>
       </c>
       <c r="Z114" t="s">
         <v>255</v>
@@ -40509,10 +40509,10 @@
         <v>-0.676591874244955</v>
       </c>
       <c r="X115" t="n">
-        <v>0.152439024390244</v>
+        <v>0.378787878787879</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.103658536585366</v>
+        <v>0.120567375886525</v>
       </c>
       <c r="Z115" t="s">
         <v>257</v>
@@ -40601,10 +40601,10 @@
         <v>-0.746111070875274</v>
       </c>
       <c r="X116" t="n">
-        <v>0.23780487804878</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.347560975609756</v>
+        <v>0.404255319148936</v>
       </c>
       <c r="Z116" t="s">
         <v>259</v>
@@ -40693,10 +40693,10 @@
         <v>-0.181808819686704</v>
       </c>
       <c r="X117" t="n">
-        <v>0.274390243902439</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.353658536585366</v>
+        <v>0.411347517730496</v>
       </c>
       <c r="Z117" t="s">
         <v>261</v>
@@ -40785,10 +40785,10 @@
         <v>-0.10454311682453</v>
       </c>
       <c r="X118" t="n">
-        <v>0.121951219512195</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.310975609756098</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="Z118" t="s">
         <v>263</v>
@@ -40877,7 +40877,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X119" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y119" t="n">
         <v>0</v>
@@ -40969,10 +40969,10 @@
         <v>-1.94641921579488</v>
       </c>
       <c r="X120" t="n">
-        <v>0.292682926829268</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.182926829268293</v>
+        <v>0.212765957446809</v>
       </c>
       <c r="Z120" t="s">
         <v>267</v>
@@ -41061,10 +41061,10 @@
         <v>-0.787004565446199</v>
       </c>
       <c r="X121" t="n">
-        <v>0.353658536585366</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.286585365853659</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z121" t="s">
         <v>269</v>
@@ -41153,10 +41153,10 @@
         <v>-0.266582869205971</v>
       </c>
       <c r="X122" t="n">
-        <v>0.335365853658537</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.524390243902439</v>
+        <v>0.609929078014184</v>
       </c>
       <c r="Z122" t="s">
         <v>271</v>
@@ -41245,10 +41245,10 @@
         <v>-0.748915189583728</v>
       </c>
       <c r="X123" t="n">
-        <v>0.280487804878049</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.304878048780488</v>
+        <v>0.354609929078014</v>
       </c>
       <c r="Z123" t="s">
         <v>273</v>
@@ -41337,10 +41337,10 @@
         <v>-0.26707615272001</v>
       </c>
       <c r="X124" t="n">
-        <v>0.121951219512195</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.103658536585366</v>
+        <v>0.120567375886525</v>
       </c>
       <c r="Z124" t="s">
         <v>275</v>
@@ -41429,10 +41429,10 @@
         <v>-0.144576387416403</v>
       </c>
       <c r="X125" t="n">
-        <v>0.396341463414634</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.579268292682927</v>
+        <v>0.673758865248227</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -41521,10 +41521,10 @@
         <v>0.0390623824032094</v>
       </c>
       <c r="X126" t="n">
-        <v>0.195121951219512</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.158536585365854</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -41616,7 +41616,7 @@
         <v>0</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.207317073170732</v>
+        <v>0.24113475177305</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -41705,10 +41705,10 @@
         <v>-0.818739611324172</v>
       </c>
       <c r="X128" t="n">
-        <v>0.24390243902439</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.310975609756098</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -41797,10 +41797,10 @@
         <v>-0.551150304347936</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0426829268292683</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.099290780141844</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -41889,10 +41889,10 @@
         <v>-1.2558754919889</v>
       </c>
       <c r="X130" t="n">
-        <v>0.158536585365854</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.121951219512195</v>
+        <v>0.141843971631206</v>
       </c>
       <c r="Z130" t="s">
         <v>287</v>
@@ -41981,10 +41981,10 @@
         <v>-0.424349301713446</v>
       </c>
       <c r="X131" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.0426829268292683</v>
+        <v>0.049645390070922</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -42073,10 +42073,10 @@
         <v>-0.790814329096601</v>
       </c>
       <c r="X132" t="n">
-        <v>0.286585365853659</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.25609756097561</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -42165,10 +42165,10 @@
         <v>-0.936793313006084</v>
       </c>
       <c r="X133" t="n">
-        <v>0.0731707317073171</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0670731707317073</v>
+        <v>0.0780141843971631</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -42257,10 +42257,10 @@
         <v>2.99145259274498</v>
       </c>
       <c r="X134" t="n">
-        <v>0.0609756097560976</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.113475177304965</v>
       </c>
       <c r="Z134" t="s">
         <v>297</v>
@@ -42349,10 +42349,10 @@
         <v>0.952714125819905</v>
       </c>
       <c r="X135" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.158536585365854</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z135" t="s">
         <v>299</v>
@@ -42441,10 +42441,10 @@
         <v>-1.28626874104806</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0609756097560976</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.0426829268292683</v>
+        <v>0.049645390070922</v>
       </c>
       <c r="Z136" t="s">
         <v>301</v>
@@ -42533,10 +42533,10 @@
         <v>-3.03874498767041</v>
       </c>
       <c r="X137" t="n">
-        <v>0.121951219512195</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.099290780141844</v>
       </c>
       <c r="Z137" t="s">
         <v>303</v>
@@ -42625,10 +42625,10 @@
         <v>-4.84439612125976</v>
       </c>
       <c r="X138" t="n">
-        <v>0.0731707317073171</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.24390243902439</v>
+        <v>0.283687943262411</v>
       </c>
       <c r="Z138" t="s">
         <v>305</v>
@@ -42717,10 +42717,10 @@
         <v>-0.227719201930314</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.099290780141844</v>
       </c>
       <c r="Z139" t="s">
         <v>309</v>
@@ -42809,10 +42809,10 @@
         <v>-6.79096179577009</v>
       </c>
       <c r="X140" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.00609756097560976</v>
+        <v>0.00709219858156028</v>
       </c>
       <c r="Z140" t="s">
         <v>311</v>
@@ -42901,10 +42901,10 @@
         <v>-4.24853162261792</v>
       </c>
       <c r="X141" t="n">
-        <v>0.231707317073171</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.146341463414634</v>
+        <v>0.170212765957447</v>
       </c>
       <c r="Z141" t="s">
         <v>313</v>
@@ -42993,10 +42993,10 @@
         <v>1.93958565755668</v>
       </c>
       <c r="X142" t="n">
-        <v>0.390243902439024</v>
+        <v>0.96969696969697</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.823170731707317</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="Z142" t="s">
         <v>315</v>
@@ -43085,10 +43085,10 @@
         <v>1.134599866892</v>
       </c>
       <c r="X143" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.310975609756098</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="Z143" t="s">
         <v>317</v>
@@ -43177,10 +43177,10 @@
         <v>-0.688400103913422</v>
       </c>
       <c r="X144" t="n">
-        <v>0.359756097560976</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.445121951219512</v>
+        <v>0.517730496453901</v>
       </c>
       <c r="Z144" t="s">
         <v>319</v>
@@ -43269,10 +43269,10 @@
         <v>0.161210644204927</v>
       </c>
       <c r="X145" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.323170731707317</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="Z145" t="s">
         <v>321</v>
@@ -43361,10 +43361,10 @@
         <v>-1.61036262230109</v>
       </c>
       <c r="X146" t="n">
-        <v>0.189024390243902</v>
+        <v>0.46969696969697</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.140243902439024</v>
+        <v>0.163120567375887</v>
       </c>
       <c r="Z146" t="s">
         <v>323</v>
@@ -43453,10 +43453,10 @@
         <v>-2.75211758367965</v>
       </c>
       <c r="X147" t="n">
-        <v>0.0426829268292683</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z147" t="s">
         <v>325</v>
@@ -43545,10 +43545,10 @@
         <v>-1.83972386753097</v>
       </c>
       <c r="X148" t="n">
-        <v>0.176829268292683</v>
+        <v>0.439393939393939</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.195121951219512</v>
+        <v>0.226950354609929</v>
       </c>
       <c r="Z148" t="s">
         <v>327</v>
@@ -43637,10 +43637,10 @@
         <v>1.9755161805346</v>
       </c>
       <c r="X149" t="n">
-        <v>0.359756097560976</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.823170731707317</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="Z149" t="s">
         <v>329</v>
@@ -43729,10 +43729,10 @@
         <v>1.82206468458096</v>
       </c>
       <c r="X150" t="n">
-        <v>0.378048780487805</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.713414634146341</v>
+        <v>0.829787234042553</v>
       </c>
       <c r="Z150" t="s">
         <v>331</v>
@@ -43821,10 +43821,10 @@
         <v>-1.82349491160621</v>
       </c>
       <c r="X151" t="n">
-        <v>0.323170731707317</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.518292682926829</v>
+        <v>0.602836879432624</v>
       </c>
       <c r="Z151" t="s">
         <v>333</v>
@@ -43913,10 +43913,10 @@
         <v>-4.2653604473466</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z152" t="s">
         <v>335</v>
@@ -44005,10 +44005,10 @@
         <v>-6.64862094146473</v>
       </c>
       <c r="X153" t="n">
-        <v>0.0548780487804878</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0567375886524823</v>
       </c>
       <c r="Z153" t="s">
         <v>337</v>
@@ -44097,10 +44097,10 @@
         <v>-3.08213976008629</v>
       </c>
       <c r="X154" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z154" t="s">
         <v>339</v>
@@ -44189,10 +44189,10 @@
         <v>1.97881186106756</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.25609756097561</v>
+        <v>0.297872340425532</v>
       </c>
       <c r="Z155" t="s">
         <v>341</v>
@@ -44281,10 +44281,10 @@
         <v>0.168530623581792</v>
       </c>
       <c r="X156" t="n">
-        <v>0.103658536585366</v>
+        <v>0.257575757575758</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.140243902439024</v>
+        <v>0.163120567375887</v>
       </c>
       <c r="Z156" t="s">
         <v>343</v>
@@ -44373,10 +44373,10 @@
         <v>-0.246917879995225</v>
       </c>
       <c r="X157" t="n">
-        <v>0.219512195121951</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.378048780487805</v>
+        <v>0.439716312056738</v>
       </c>
       <c r="Z157" t="s">
         <v>345</v>
@@ -44465,10 +44465,10 @@
         <v>-0.539649934196193</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.113475177304965</v>
       </c>
       <c r="Z158" t="s">
         <v>347</v>
@@ -44557,10 +44557,10 @@
         <v>0.172756440754134</v>
       </c>
       <c r="X159" t="n">
-        <v>0.371951219512195</v>
+        <v>0.924242424242424</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.50609756097561</v>
+        <v>0.588652482269504</v>
       </c>
       <c r="Z159" t="s">
         <v>349</v>
@@ -44649,10 +44649,10 @@
         <v>0.519182002954325</v>
       </c>
       <c r="X160" t="n">
-        <v>0.341463414634146</v>
+        <v>0.848484848484849</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.542682926829268</v>
+        <v>0.631205673758865</v>
       </c>
       <c r="Z160" t="s">
         <v>351</v>
@@ -44741,10 +44741,10 @@
         <v>-0.999209238639009</v>
       </c>
       <c r="X161" t="n">
-        <v>0.353658536585366</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.457317073170732</v>
+        <v>0.531914893617021</v>
       </c>
       <c r="Z161" t="s">
         <v>353</v>
@@ -44833,10 +44833,10 @@
         <v>-1.32102193815265</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0609756097560976</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.0792682926829268</v>
+        <v>0.0921985815602837</v>
       </c>
       <c r="Z162" t="s">
         <v>355</v>
@@ -44925,10 +44925,10 @@
         <v>-2.1876631987653</v>
       </c>
       <c r="X163" t="n">
-        <v>0.146341463414634</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.0914634146341463</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="Z163" t="s">
         <v>357</v>
@@ -45017,10 +45017,10 @@
         <v>0.46396929884839</v>
       </c>
       <c r="X164" t="n">
-        <v>0.182926829268293</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.158536585365854</v>
+        <v>0.184397163120567</v>
       </c>
       <c r="Z164" t="s">
         <v>359</v>
@@ -45109,10 +45109,10 @@
         <v>2.1606994344098</v>
       </c>
       <c r="X165" t="n">
-        <v>0.268292682926829</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.707317073170732</v>
+        <v>0.822695035460993</v>
       </c>
       <c r="Z165" t="s">
         <v>361</v>
